--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5629999999999999</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.394</v>
+        <v>27.886</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.827</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.798</v>
+        <v>28.883</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.901</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.448</v>
+        <v>27.331</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.279719081200565</v>
+        <v>28.1661162682066</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.6682094960516</v>
+        <v>28.16611630046037</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.42051440282641</v>
+        <v>28.1661163096068</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-7.03348349289092</v>
+        <v>28.16611626655917</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.8408615618874</v>
+        <v>28.16611630175241</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.43393843254545</v>
+        <v>28.16611631145345</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.997635525405702</v>
+        <v>28.16611627422147</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.75265273332859</v>
+        <v>28.16611630996159</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.71961658471351</v>
+        <v>28.16611631899555</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.90614719691318</v>
+        <v>28.1661163251074</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.44486561959816</v>
+        <v>28.16611633843978</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.10508113257117</v>
+        <v>28.16611634275287</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.16591421491839</v>
+        <v>28.16611629863553</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.25294449744806</v>
+        <v>28.166116332544</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.34999782025746</v>
+        <v>28.16611634182032</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.14217888217174</v>
+        <v>28.16611631851409</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.44202238725631</v>
+        <v>28.16611635528528</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.83133656568685</v>
+        <v>28.1661163659976</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.567629997958832</v>
+        <v>28.16611631530551</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.95195325729216</v>
+        <v>28.16611635437163</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30.91299923530422</v>
+        <v>28.16611636626514</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.482359431228875</v>
+        <v>28.16611632773274</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.18722815659213</v>
+        <v>28.16611636804936</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>51.00806070733712</v>
+        <v>28.16611637886207</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40.05591486022635</v>
+        <v>28.16611638234918</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>54.83886115014757</v>
+        <v>28.16611639892618</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>60.86506761749616</v>
+        <v>28.16611640428284</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11.26093852494287</v>
+        <v>28.16611635068391</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.55532597782743</v>
+        <v>28.16611639108971</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53.96555458487114</v>
+        <v>28.16611640134678</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18.11884283532056</v>
+        <v>28.16611635699089</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.5397966911224</v>
+        <v>28.1661163937233</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>40.55025619048115</v>
+        <v>28.16611640521578</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.517780869781033</v>
+        <v>28.1661163531882</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.27864263996909</v>
+        <v>28.16611639238083</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>34.30423273555854</v>
+        <v>28.16611640480251</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5.117908014091581</v>
+        <v>28.16611636743496</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.69750758579367</v>
+        <v>28.16611640772103</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>57.26038266968669</v>
+        <v>28.16611641929507</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>56.69265303408646</v>
+        <v>28.16611641993576</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>68.81317610802114</v>
+        <v>28.1661164363278</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>74.22687457786608</v>
+        <v>28.16611644090536</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.61815009210393</v>
+        <v>28.16611638746586</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>55.57349924624107</v>
+        <v>28.16611642711705</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>64.83792978008297</v>
+        <v>28.16611643793797</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.6337594101994</v>
+        <v>28.16611627505953</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>34.99394594117703</v>
+        <v>28.16611630763445</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.44969532759922</v>
+        <v>28.1661163163467</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.790264049226881</v>
+        <v>28.16611627329774</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>39.68146111460565</v>
+        <v>28.16611630900146</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.76327493321077</v>
+        <v>28.16611631822836</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.20228823800252</v>
+        <v>28.16611628126289</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>62.33017707132066</v>
+        <v>28.1661163173074</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.05043004725485</v>
+        <v>28.16611632588576</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>55.28733718746093</v>
+        <v>28.16611633074422</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>60.86888059878623</v>
+        <v>28.16611634383634</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.96873556237055</v>
+        <v>28.16611634780219</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.93471550857677</v>
+        <v>28.16611630354306</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>48.3343844504308</v>
+        <v>28.16611633798373</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>56.98071103647855</v>
+        <v>28.16611634690199</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.06286563639373</v>
+        <v>28.1661163210657</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>37.32046914923367</v>
+        <v>28.16611635800686</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.95069050169477</v>
+        <v>28.16611636824316</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.5595170223578876</v>
+        <v>28.16611631769266</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.12520835861402</v>
+        <v>28.16611635715239</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.27351764625429</v>
+        <v>28.16611636854431</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.164906492269434</v>
+        <v>28.16611633041991</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>50.86613841686113</v>
+        <v>28.1661163708971</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>60.61043333499672</v>
+        <v>28.16611638121901</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>48.72185155827773</v>
+        <v>28.1661163840436</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>61.63551277440862</v>
+        <v>28.16611640011978</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>65.75678859126687</v>
+        <v>28.1661164050764</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.29355096827304</v>
+        <v>28.16611635190429</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>53.71281613335445</v>
+        <v>28.16611639250015</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>60.04179225574184</v>
+        <v>28.16611640256304</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.73476272227868</v>
+        <v>28.16611635957092</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.66102661879862</v>
+        <v>28.16611639656205</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.17646500885203</v>
+        <v>28.16611640752633</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.5847327524056531</v>
+        <v>28.16611635572254</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.75831672038772</v>
+        <v>28.16611639538333</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.1065482464688</v>
+        <v>28.16611640725808</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>2.598537937712999</v>
+        <v>28.16611637033589</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>61.38186896839833</v>
+        <v>28.16611641086185</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>73.78953135257967</v>
+        <v>28.16611642189571</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>66.75830779458984</v>
+        <v>28.16611642194155</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>76.59852172511134</v>
+        <v>28.1661164378731</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>83.90610256854204</v>
+        <v>28.16611644214243</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.89712032840341</v>
+        <v>28.16611638893061</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>66.18872898396776</v>
+        <v>28.16611642893843</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>71.72932010874473</v>
+        <v>28.16611643951417</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.00091885497019</v>
+        <v>28.16611627403279</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.84865706102899</v>
+        <v>28.16611630655752</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.64356358836129</v>
+        <v>28.16611631522752</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.488318047947043</v>
+        <v>28.16611627209558</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.01708577064981</v>
+        <v>28.166116307753</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.6420706447094</v>
+        <v>28.16611631696385</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.0756905838894</v>
+        <v>28.16611628009001</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>53.42639820565133</v>
+        <v>28.16611631609961</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>54.72886505370919</v>
+        <v>28.16611632464622</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>46.99054791987597</v>
+        <v>28.16611632976839</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>55.70383263100233</v>
+        <v>28.1661163428519</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>53.42416585966218</v>
+        <v>28.16611634681202</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.90674652029725</v>
+        <v>28.16611630267796</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>44.06369454937065</v>
+        <v>28.16611633705701</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>50.11416616988511</v>
+        <v>28.16611634595393</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.98852451838695</v>
+        <v>28.16611632128014</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.55076696863405</v>
+        <v>28.16611635823496</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>47.99222217544283</v>
+        <v>28.16611636842118</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.003922099837688</v>
+        <v>28.16611631781425</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.35790019725641</v>
+        <v>28.16611635731568</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.34128404549962</v>
+        <v>28.16611636866551</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.564076690376337</v>
+        <v>28.16611633064382</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53.0044538061354</v>
+        <v>28.16611637116168</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>61.30656438468721</v>
+        <v>28.16611638143884</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>52.29087547830798</v>
+        <v>28.16611638443126</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>66.52230513321726</v>
+        <v>28.16611640050683</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>66.80654203651901</v>
+        <v>28.16611640546982</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>18.95873075667718</v>
+        <v>28.1661163523352</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>53.94361131847913</v>
+        <v>28.16611639290854</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>59.37877730933707</v>
+        <v>28.16611640297065</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.36909740140492</v>
+        <v>28.16611635989422</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.8759726166853</v>
+        <v>28.16611639689042</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>51.93270755862159</v>
+        <v>28.16611640781969</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3.813268848983761</v>
+        <v>28.16611635590221</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.08265879034037</v>
+        <v>28.16611639559393</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.53317050598764</v>
+        <v>28.16611640743227</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6.571716357063837</v>
+        <v>28.1661163706298</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>59.3907122139788</v>
+        <v>28.16611641118584</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>71.27793085500417</v>
+        <v>28.16611642218802</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>70.0980795838182</v>
+        <v>28.16611642238466</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.21131470839396</v>
+        <v>28.16611643832106</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.02477887643315</v>
+        <v>28.16611644259152</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>22.85772371315222</v>
+        <v>28.16611638941915</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>66.95771861568599</v>
+        <v>28.16611642938261</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>74.26211415820728</v>
+        <v>28.16611643995262</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.61656717509424</v>
+        <v>28.16611626653643</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>16.20677432481217</v>
+        <v>28.16611629829872</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.7336887445288</v>
+        <v>28.16611630727877</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-3.556838610801435</v>
+        <v>28.16611626457751</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.36070743217229</v>
+        <v>28.16611629924327</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.95967817425436</v>
+        <v>28.16611630875761</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.373917495063026</v>
+        <v>28.1661162719893</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.8243719917361</v>
+        <v>28.1661163071866</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.5691547733394</v>
+        <v>28.16611631605826</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.73571986121625</v>
+        <v>28.1661163222762</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.36325430882378</v>
+        <v>28.16611633537729</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>38.56620683279972</v>
+        <v>28.16611633965738</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.44277362845143</v>
+        <v>28.16611629654705</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>45.51586033051804</v>
+        <v>28.16611632987774</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>49.28448166621899</v>
+        <v>28.16611633898246</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>15.94464187994371</v>
+        <v>28.16611631594145</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.53812720183533</v>
+        <v>28.16611635212855</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.91224774586054</v>
+        <v>28.16611636267315</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3.485316528230824</v>
+        <v>28.16611631234183</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.85905481927412</v>
+        <v>28.16611635081349</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.08982716183879</v>
+        <v>28.16611636249352</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>6.167781550850542</v>
+        <v>28.16611632442885</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.16830034505553</v>
+        <v>28.1661163641068</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>48.88010501776378</v>
+        <v>28.16611637475455</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.28040956296684</v>
+        <v>28.16611637833961</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>52.79556663381516</v>
+        <v>28.16611639465028</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>60.22019645994874</v>
+        <v>28.16611639996868</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.41005793702076</v>
+        <v>28.16611634741004</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>47.68046150859647</v>
+        <v>28.16611638713738</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>52.9176754097906</v>
+        <v>28.16611639722464</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.25700255727314</v>
+        <v>28.16611635467462</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.63028272592832</v>
+        <v>28.16611639085462</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>40.37872670200246</v>
+        <v>28.16611640213205</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>4.400859142852385</v>
+        <v>28.16611635047654</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.38929000904433</v>
+        <v>28.16611638909858</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>33.87633568221755</v>
+        <v>28.16611640127358</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>8.96542137697236</v>
+        <v>28.16611636445248</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.80460229574861</v>
+        <v>28.1661164041406</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>57.70137627196252</v>
+        <v>28.16611641550761</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.91702970567288</v>
+        <v>28.16611641629811</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>66.48971685334075</v>
+        <v>28.16611643243769</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>74.18196364369666</v>
+        <v>28.16611643696917</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.8904802368853</v>
+        <v>28.16611638451047</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>59.68335597148963</v>
+        <v>28.16611642355247</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>65.28917606856217</v>
+        <v>28.16611643418675</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.7692904773502</v>
+        <v>28.16611627413114</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.76518676342138</v>
+        <v>28.16611630627059</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.4166109766853</v>
+        <v>28.16611631522406</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.210917490305391</v>
+        <v>28.1661162725032</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>32.95809202127339</v>
+        <v>28.16611630764089</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.80319125269735</v>
+        <v>28.16611631711006</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.8099253310862</v>
+        <v>28.16611628031323</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>54.30277964484104</v>
+        <v>28.16611631593608</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>54.0617531637406</v>
+        <v>28.16611632477783</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>40.36361951908536</v>
+        <v>28.16611633011851</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.72568981354745</v>
+        <v>28.16611634325524</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>48.48206890351086</v>
+        <v>28.16611634748806</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.13678148121691</v>
+        <v>28.16611630368086</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.4332133328281</v>
+        <v>28.16611633725006</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>37.44804375355717</v>
+        <v>28.16611634636187</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.8852667217066</v>
+        <v>28.16611632478019</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.38845361500687</v>
+        <v>28.16611636134048</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49.44810096804908</v>
+        <v>28.1661163718033</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>9.681618948609906</v>
+        <v>28.16611632164477</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.64549969294249</v>
+        <v>28.16611636057932</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>43.90736820761585</v>
+        <v>28.16611637218836</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>14.57710677378685</v>
+        <v>28.16611633419947</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>56.36434906144959</v>
+        <v>28.16611637430199</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>64.94118961517859</v>
+        <v>28.16611638486892</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>57.44127667338435</v>
+        <v>28.16611638777262</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>71.84702026240282</v>
+        <v>28.16611640411546</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>76.75512771660385</v>
+        <v>28.16611640937946</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.86903263466775</v>
+        <v>28.16611635623583</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>60.48807962159675</v>
+        <v>28.16611639622356</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>63.91795626349025</v>
+        <v>28.16611640627518</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.8543792570358</v>
+        <v>28.1661163621307</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.73886850406677</v>
+        <v>28.16611639865622</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.93826620737119</v>
+        <v>28.16611640989616</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>6.332666195299735</v>
+        <v>28.16611635836943</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.15774200874588</v>
+        <v>28.16611639741402</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>43.34263457386724</v>
+        <v>28.16611640956708</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>12.29339163467963</v>
+        <v>28.16611637271576</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>59.74089922488676</v>
+        <v>28.16611641279048</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>70.23842596800117</v>
+        <v>28.16611642412282</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>66.54871236663236</v>
+        <v>28.16611642422933</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>80.58926656740095</v>
+        <v>28.16611644042845</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>87.07913939713548</v>
+        <v>28.16611644492782</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.42521065315917</v>
+        <v>28.16611639188252</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>66.14389277430411</v>
+        <v>28.16611643118554</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>71.52521108643735</v>
+        <v>28.16611644183167</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>11.63951701164303</v>
+        <v>28.16611628532437</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>30.6885959294638</v>
+        <v>28.16611631517661</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>33.76718684774099</v>
+        <v>28.16611632301516</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>6.214035219836163</v>
+        <v>28.16611628374017</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.18725892503048</v>
+        <v>28.1661163165324</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.54356977677652</v>
+        <v>28.16611632478358</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.85618114979144</v>
+        <v>28.16611629116961</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>59.76865659690613</v>
+        <v>28.16611632423976</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>58.51661091846517</v>
+        <v>28.16611633196331</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.9295759825113</v>
+        <v>28.1661163359585</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>43.76294169934155</v>
+        <v>28.16611634783671</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.54949449350576</v>
+        <v>28.16611635146632</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5.701048213003403</v>
+        <v>28.16611631093497</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.24773398014879</v>
+        <v>28.16611634208799</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.34084027345162</v>
+        <v>28.16611635011934</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.26524253084743</v>
+        <v>28.16611633184191</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>48.74871748250997</v>
+        <v>28.16611636584484</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>49.99990929403705</v>
+        <v>28.16611637500352</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>5.582695273654291</v>
+        <v>28.16611632893864</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>39.74787761633767</v>
+        <v>28.16611636535401</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>43.07702332496319</v>
+        <v>28.16611637551788</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>8.227818135655658</v>
+        <v>28.16611634090754</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>62.13097801075499</v>
+        <v>28.16611637819701</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>64.785939329215</v>
+        <v>28.16611638744287</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>56.64083243830247</v>
+        <v>28.16611638952557</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>70.24355370454899</v>
+        <v>28.16611640420731</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>72.35407048278768</v>
+        <v>28.16611640872129</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>22.42131484530809</v>
+        <v>28.16611635982471</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>63.38665214339836</v>
+        <v>28.16611639695245</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>65.07628466483429</v>
+        <v>28.16611640592347</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.4738908667522</v>
+        <v>28.16611636565863</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>48.41791104305766</v>
+        <v>28.16611639961097</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>52.53025668014777</v>
+        <v>28.16611640947955</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2.876023596858925</v>
+        <v>28.16611636221172</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>39.22528770343602</v>
+        <v>28.16611639869992</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.19045779472961</v>
+        <v>28.16611640936922</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>6.70378341344248</v>
+        <v>28.16611637583653</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>65.22303699770136</v>
+        <v>28.16611641307612</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>73.03657813442138</v>
+        <v>28.16611642301996</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>66.66986094107077</v>
+        <v>28.16611642261001</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>79.09666749582476</v>
+        <v>28.16611643716973</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>84.26431210657142</v>
+        <v>28.16611644106088</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>19.34994692466148</v>
+        <v>28.16611639217871</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>69.81723241337369</v>
+        <v>28.16611642869499</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>70.64336304684622</v>
+        <v>28.1661164382158</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1.000623356175126</v>
+        <v>28.16611627090803</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>4.64814530654122</v>
+        <v>28.16611630042919</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>10.47552654200496</v>
+        <v>28.16611630863196</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-8.817667350688595</v>
+        <v>28.16611626927511</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>5.675176166861579</v>
+        <v>28.16611630158321</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>7.411077333779325</v>
+        <v>28.1661163103043</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-3.824385295770156</v>
+        <v>28.16611627618484</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.31406886918348</v>
+        <v>28.16611630889681</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.67587047449883</v>
+        <v>28.16611631699945</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>16.85987838962797</v>
+        <v>28.16611632306916</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.41621689532066</v>
+        <v>28.16611633527547</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>24.44437515303864</v>
+        <v>28.16611633908312</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1.674454997968112</v>
+        <v>28.16611629858411</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.22666375335075</v>
+        <v>28.16611632978879</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.33233023910011</v>
+        <v>28.1661163381426</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>13.73912311361389</v>
+        <v>28.16611631694622</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.39724236451009</v>
+        <v>28.16611635074814</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.62641646330066</v>
+        <v>28.16611636039191</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1.161965162261438</v>
+        <v>28.16611631394771</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>14.31688126133496</v>
+        <v>28.16611635000781</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.09164719021843</v>
+        <v>28.1661163607195</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3.728851229144544</v>
+        <v>28.16611632542717</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>32.74068409737635</v>
+        <v>28.16611636250138</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.20610890727822</v>
+        <v>28.16611637223117</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>32.35603579743554</v>
+        <v>28.16611637592551</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.34251100703408</v>
+        <v>28.16611639095836</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>52.03935086469571</v>
+        <v>28.16611639569925</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>9.796880177397565</v>
+        <v>28.16611634665652</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>35.46295008496152</v>
+        <v>28.16611638389088</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>46.09509755860275</v>
+        <v>28.16611639326897</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13.0539385368926</v>
+        <v>28.16611635312929</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>30.31186554227141</v>
+        <v>28.16611638690027</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.0856413946297</v>
+        <v>28.16611639726896</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.4942282114295544</v>
+        <v>28.16611634961153</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>24.77348105746117</v>
+        <v>28.16611638579218</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.9605898823751</v>
+        <v>28.16611639699152</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>4.870313055210389</v>
+        <v>28.16611636281982</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>45.56732507109079</v>
+        <v>28.16611639986424</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.75191972089422</v>
+        <v>28.1661164102943</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>53.9866843643786</v>
+        <v>28.16611641138454</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>65.83554645941561</v>
+        <v>28.16611642623754</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>70.66451877189527</v>
+        <v>28.16611643031159</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>18.23551703713585</v>
+        <v>28.16611638139681</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>54.59647205751978</v>
+        <v>28.16611641790424</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>65.02241234664518</v>
+        <v>28.16611642778286</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-1.164232267935162</v>
+        <v>28.1661162667598</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1.705448985158753</v>
+        <v>28.16611629870022</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>5.821445967383331</v>
+        <v>28.16611630765204</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-8.956803958392541</v>
+        <v>28.16611626483806</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>7.728814557475168</v>
+        <v>28.16611629975733</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.509676220794162</v>
+        <v>28.16611630921691</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-7.961952447645036</v>
+        <v>28.1661162722622</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.57805229012255</v>
+        <v>28.16611630765338</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>19.30669247040323</v>
+        <v>28.16611631650366</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.17515978498176</v>
+        <v>28.16611632242933</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.59004056487007</v>
+        <v>28.16611633557951</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.78973075217342</v>
+        <v>28.16611633983653</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>1.623958634188078</v>
+        <v>28.16611629625112</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>9.218082607500865</v>
+        <v>28.16611632975998</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>10.2487617586656</v>
+        <v>28.16611633884377</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>2.066764366719164</v>
+        <v>28.16611631602212</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>7.199100525884891</v>
+        <v>28.1661163523634</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.51216346353238</v>
+        <v>28.16611636286797</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-8.65292740465064</v>
+        <v>28.16611631258387</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>3.252241235482892</v>
+        <v>28.16611635128589</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.8643565529704</v>
+        <v>28.16611636291269</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-9.640978234774639</v>
+        <v>28.1661163247332</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>13.02508101598426</v>
+        <v>28.16611636458548</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.12932668796351</v>
+        <v>28.1661163752087</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.29586059070002</v>
+        <v>28.16611637869028</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.1509893640367</v>
+        <v>28.16611639504855</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.7560548370153</v>
+        <v>28.16611640039358</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-8.098914541339745</v>
+        <v>28.16611634742162</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>13.64000733638563</v>
+        <v>28.16611638729873</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>14.25851644223802</v>
+        <v>28.16611639737096</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>4.951286580374575</v>
+        <v>28.16611635423207</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.92652347653931</v>
+        <v>28.16611639056348</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.72677966752896</v>
+        <v>28.16611640185354</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-6.330216399628156</v>
+        <v>28.16611635025772</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>8.687982071156418</v>
+        <v>28.1661163890984</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>19.29720435756501</v>
+        <v>28.16611640128282</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-7.497790865639633</v>
+        <v>28.16611636425306</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>22.49520161903562</v>
+        <v>28.16611640410473</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.98010305455942</v>
+        <v>28.16611641549992</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>27.92155526190712</v>
+        <v>28.16611641616475</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.28427832465447</v>
+        <v>28.16611643241497</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>57.08258040064693</v>
+        <v>28.16611643696698</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1.671816249188566</v>
+        <v>28.1661163840449</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.53075387798373</v>
+        <v>28.16611642326392</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>31.0073338737035</v>
+        <v>28.16611643394212</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.10064734087249</v>
+        <v>28.16611628994537</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.2927633509137</v>
+        <v>28.16611632116616</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>38.63257413055253</v>
+        <v>28.16611632952544</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>6.429196813801582</v>
+        <v>28.16611628932021</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.77642818295101</v>
+        <v>28.16611632367414</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>46.28196233711267</v>
+        <v>28.16611633247286</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.39521231767533</v>
+        <v>28.16611629742179</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>63.5723242898825</v>
+        <v>28.16611633202672</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>70.42525147988746</v>
+        <v>28.16611634024366</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>55.90718510725377</v>
+        <v>28.16611634435874</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>62.92337718633411</v>
+        <v>28.16611635685858</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>63.7024092100791</v>
+        <v>28.16611636066096</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.92364453817883</v>
+        <v>28.16611631819274</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>50.99963159071999</v>
+        <v>28.16611635098964</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>63.50953470412463</v>
+        <v>28.16611635955265</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.98867464563174</v>
+        <v>28.16611633383645</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.40858470488834</v>
+        <v>28.16611636927911</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>40.22131865966878</v>
+        <v>28.16611637895601</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-4.77951569040696</v>
+        <v>28.16611633160598</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.27510659110156</v>
+        <v>28.16611636959233</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>32.17619850930815</v>
+        <v>28.16611638031612</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-0.05035056339946209</v>
+        <v>28.16611634421933</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>47.18119057815937</v>
+        <v>28.16611638310319</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>58.44710224019121</v>
+        <v>28.16611639284445</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>48.17924254614182</v>
+        <v>28.16611639513242</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>62.04484466062257</v>
+        <v>28.16611641049575</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>62.65009793559641</v>
+        <v>28.16611641521152</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>18.59846586847364</v>
+        <v>28.16611636421783</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>53.46974152730205</v>
+        <v>28.16611640302676</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>60.20343227231371</v>
+        <v>28.16611641251909</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>12.41145042717446</v>
+        <v>28.16611636902875</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.77746873265671</v>
+        <v>28.16611640440746</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.98019085238968</v>
+        <v>28.16611641486626</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-1.240934814031469</v>
+        <v>28.16611636624869</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.34166460288859</v>
+        <v>28.16611640431043</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>42.25915713718318</v>
+        <v>28.1661164155765</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>2.059298623893707</v>
+        <v>28.16611638055177</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>57.50414502541341</v>
+        <v>28.16611641936533</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>71.51552661087439</v>
+        <v>28.16611642987113</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>64.93590194043585</v>
+        <v>28.16611642949501</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>76.25542966045427</v>
+        <v>28.16611644471467</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>80.68852560868913</v>
+        <v>28.16611644879091</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.82644315050718</v>
+        <v>28.16611639789458</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>65.81180574672808</v>
+        <v>28.1661164360001</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>74.42750152156694</v>
+        <v>28.16611644607259</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>2.835043908458109</v>
+        <v>28.16611626405195</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.174491184610213</v>
+        <v>28.16611629333725</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.07391107366302</v>
+        <v>28.16611630143628</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-8.3004160971674</v>
+        <v>28.16611626174808</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4.453104022542355</v>
+        <v>28.16611629370721</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>5.321028938105531</v>
+        <v>28.16611630232967</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-3.20499896733115</v>
+        <v>28.16611626821523</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.58862713178783</v>
+        <v>28.1661163005986</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.11484240700898</v>
+        <v>28.16611630860675</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>16.88309572522758</v>
+        <v>28.16611631483268</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.29712320939398</v>
+        <v>28.16611632697402</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.82620991045975</v>
+        <v>28.16611633069228</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-2.675165962601078</v>
+        <v>28.16611629061271</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>13.72330937755293</v>
+        <v>28.16611632176881</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>17.14120365409942</v>
+        <v>28.16611632999669</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>7.523178761740521</v>
+        <v>28.16611630839191</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.78513673049236</v>
+        <v>28.16611634181069</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.72349004659845</v>
+        <v>28.16611635146682</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-5.830221243028976</v>
+        <v>28.16611630481972</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.721390655420358</v>
+        <v>28.1661163403855</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.63352821255118</v>
+        <v>28.16611635112016</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-2.67602259646517</v>
+        <v>28.16611631578609</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21.32471479412634</v>
+        <v>28.16611635238571</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>34.51408660604801</v>
+        <v>28.16611636214184</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.71093421035413</v>
+        <v>28.16611636600275</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>31.92996528523813</v>
+        <v>28.16611638096397</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>40.60067917911882</v>
+        <v>28.16611638566609</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3.773485605544856</v>
+        <v>28.16611633716572</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>24.8833327584508</v>
+        <v>28.16611637411949</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>34.12029762191331</v>
+        <v>28.16611638352115</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.57916648008389</v>
+        <v>28.1661163450299</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.13319871890968</v>
+        <v>28.16611637850081</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.99157239714289</v>
+        <v>28.16611638883724</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1.226846410727475</v>
+        <v>28.16611634103636</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>17.53106802107961</v>
+        <v>28.16611637679199</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.50425430580666</v>
+        <v>28.16611638799798</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>3.185547633889705</v>
+        <v>28.16611635376358</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.70878898986774</v>
+        <v>28.16611639041512</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>48.80671016224012</v>
+        <v>28.16611640082831</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>39.02303900475109</v>
+        <v>28.16611640212134</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>51.79328185819985</v>
+        <v>28.16611641690876</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>61.71983278802983</v>
+        <v>28.16611642094147</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.053767214799144</v>
+        <v>28.16611637246098</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>43.59911010569226</v>
+        <v>28.16611640881168</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>51.75892935890339</v>
+        <v>28.16611641864991</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.8353875194451277</v>
+        <v>28.16611626996337</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>4.5656838267811</v>
+        <v>28.16611630087858</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.123497696669627</v>
+        <v>28.16611630907251</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-10.25244359113275</v>
+        <v>28.16611626737003</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>3.129555330970678</v>
+        <v>28.16611630121412</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.608877438342063</v>
+        <v>28.16611630992585</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-12.24430528775695</v>
+        <v>28.16611627461165</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.83158086151924</v>
+        <v>28.16611630882317</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>15.54850254438016</v>
+        <v>28.16611631691473</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>6.544301262368183</v>
+        <v>28.16611632208529</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>9.433951394311535</v>
+        <v>28.16611633450688</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>10.46276057505696</v>
+        <v>28.16611633829579</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-9.734564922516675</v>
+        <v>28.16611629644892</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-0.01208448514821825</v>
+        <v>28.16611632903546</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>2.934966316857277</v>
+        <v>28.16611633743947</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.38543632137856</v>
+        <v>28.16611631821931</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.69304894803621</v>
+        <v>28.16611635344138</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.65107288224819</v>
+        <v>28.16611636314252</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.844948493108431</v>
+        <v>28.16611631436529</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.75591097535818</v>
+        <v>28.16611635197969</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>32.32613851004929</v>
+        <v>28.16611636280128</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>7.083317303519522</v>
+        <v>28.16611632639792</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>46.2907473943115</v>
+        <v>28.16611636500313</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>49.42455039430005</v>
+        <v>28.16611637481151</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.90019544422107</v>
+        <v>28.16611637780316</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>52.68269099099538</v>
+        <v>28.16611639312984</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>55.70514687689264</v>
+        <v>28.16611639788041</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>14.45871527404515</v>
+        <v>28.16611634727095</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.9909057985571</v>
+        <v>28.16611638589625</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>49.01365408874656</v>
+        <v>28.16611639546484</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.42730115396176</v>
+        <v>28.16611635562518</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>41.66222444299859</v>
+        <v>28.16611639093383</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>45.76843986434911</v>
+        <v>28.16611640130636</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>4.047675255802709</v>
+        <v>28.16611635124707</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.26161779395432</v>
+        <v>28.16611638908636</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>37.91503779700751</v>
+        <v>28.16611640034587</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>5.579238503175091</v>
+        <v>28.16611636514408</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>52.44874255750926</v>
+        <v>28.16611640383694</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>61.26736229635009</v>
+        <v>28.16611641430152</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>60.69457892437683</v>
+        <v>28.16611641462265</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>68.20190663263548</v>
+        <v>28.16611642983279</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>75.34387518151706</v>
+        <v>28.16611643391203</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>18.28828467793647</v>
+        <v>28.16611638317248</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>60.59281619526617</v>
+        <v>28.16611642129848</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.99452122364345</v>
+        <v>28.16611643132887</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.39258773048546</v>
+        <v>28.1661162626831</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>11.76927064003521</v>
+        <v>28.16611629303724</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>15.84330143557271</v>
+        <v>28.16611630137312</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1.395677796486865</v>
+        <v>28.16611626000839</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>9.932360948720152</v>
+        <v>28.16611629320555</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.39502955854664</v>
+        <v>28.16611630208627</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>3.356190542453065</v>
+        <v>28.16611626687731</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.91780197753589</v>
+        <v>28.16611630049684</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.01611144819779</v>
+        <v>28.16611630872065</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.43616319201646</v>
+        <v>28.16611631472871</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.78166268166923</v>
+        <v>28.16611632713182</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.73193887057857</v>
+        <v>28.16611633091354</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.74214373891881</v>
+        <v>28.16611628977282</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>18.43780080783824</v>
+        <v>28.16611632193676</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.61313477522994</v>
+        <v>28.16611633044302</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>6.657202645786374</v>
+        <v>28.16611630707972</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>11.45211736429575</v>
+        <v>28.16611634158571</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>18.71749228437502</v>
+        <v>28.16611635152427</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-9.358590775363368</v>
+        <v>28.16611630281972</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>0.1025163873005503</v>
+        <v>28.1661163396298</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>7.60589675931028</v>
+        <v>28.16611635066722</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-8.174779046592455</v>
+        <v>28.16611631425074</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>13.06556181978561</v>
+        <v>28.16611635209061</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>23.63572519988174</v>
+        <v>28.16611636212618</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>11.65295037913288</v>
+        <v>28.16611636590232</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.14863325377794</v>
+        <v>28.16611638114322</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>24.37847041281041</v>
+        <v>28.16611638596018</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-3.31145380856217</v>
+        <v>28.16611633625358</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>14.06305147884262</v>
+        <v>28.16611637425792</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.90115237733244</v>
+        <v>28.16611638400005</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.2908979908766</v>
+        <v>28.16611634671891</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.91580906439327</v>
+        <v>28.1661163813724</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>32.68296993443492</v>
+        <v>28.16611639191275</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.271068304139423</v>
+        <v>28.16611634200281</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.60022143433967</v>
+        <v>28.16611637910922</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>22.72563700469299</v>
+        <v>28.16611639050737</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1.332555953481123</v>
+        <v>28.16611635546798</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.15332237958128</v>
+        <v>28.16611639347239</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>45.13034585227751</v>
+        <v>28.16611640408309</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>44.17718423939287</v>
+        <v>28.16611640522466</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.05773820257518</v>
+        <v>28.16611642029443</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>55.40117378043995</v>
+        <v>28.16611642440427</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>15.62201240136478</v>
+        <v>28.16611637458519</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>40.18762307993389</v>
+        <v>28.16611641210478</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>44.7143238474769</v>
+        <v>28.16611642222641</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.429306422902087</v>
+        <v>28.1661162586401</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.145984738715729</v>
+        <v>28.16611628748366</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>2.781872355861509</v>
+        <v>28.16611629536359</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-4.824548310566112</v>
+        <v>28.16611625536051</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1.947412568559074</v>
+        <v>28.16611628687577</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-3.801241370706599</v>
+        <v>28.1661162952746</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1.212539198108395</v>
+        <v>28.16611626147245</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.875363880913</v>
+        <v>28.16611629340009</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>8.579887283919323</v>
+        <v>28.16611630118608</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>5.770378743616202</v>
+        <v>28.16611630746625</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.297095780420449</v>
+        <v>28.16611631923383</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.691335815628676</v>
+        <v>28.16611632286322</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.325134884595236</v>
+        <v>28.16611628401464</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>4.00621037508764</v>
+        <v>28.16611631453873</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>6.67869160555178</v>
+        <v>28.16611632258427</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>4.722671488489361</v>
+        <v>28.16611630191278</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>5.452682522139153</v>
+        <v>28.16611633475907</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.027126988038745</v>
+        <v>28.16611634416513</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-9.466351680913355</v>
+        <v>28.166116297182</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-4.907636477443987</v>
+        <v>28.16611633219406</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-0.9329523467761192</v>
+        <v>28.16611634265453</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-9.450133809976435</v>
+        <v>28.16611630770089</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>4.451108013253668</v>
+        <v>28.16611634370384</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>9.518585869153442</v>
+        <v>28.1661163532143</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-0.2304753063747995</v>
+        <v>28.16611635732507</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>6.574503657872306</v>
+        <v>28.16611637182834</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.095508382950161</v>
+        <v>28.16611637642283</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-8.902860813991946</v>
+        <v>28.16611632928975</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>1.13863840023086</v>
+        <v>28.16611636543395</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>3.63492888349923</v>
+        <v>28.16611637465523</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.34374496812111</v>
+        <v>28.1661163406134</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.99125951909353</v>
+        <v>28.1661163736126</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.9373735905714</v>
+        <v>28.16611638361437</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-2.852317818447311</v>
+        <v>28.16611633545049</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>8.721982324571805</v>
+        <v>28.16611637074946</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.45689938609998</v>
+        <v>28.16611638159167</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-0.3892838249456112</v>
+        <v>28.16611634798739</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.94042097448192</v>
+        <v>28.16611638416094</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.77185178962468</v>
+        <v>28.16611639425024</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.23493425778393</v>
+        <v>28.16611639582118</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.72682231654325</v>
+        <v>28.16611641018446</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>41.97965241054654</v>
+        <v>28.16611641411297</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.767713290635</v>
+        <v>28.16611636677226</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.70693272066956</v>
+        <v>28.16611640247747</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>30.80916918645118</v>
+        <v>28.16611641210275</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.97352792978602</v>
+        <v>28.16611626836693</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.74147475756705</v>
+        <v>28.16611630067233</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.60190553545964</v>
+        <v>28.16611630976732</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.031304111158578</v>
+        <v>28.16611626642799</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.72845696865856</v>
+        <v>28.1661163016881</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.8017475040604</v>
+        <v>28.16611631130596</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.68792679823521</v>
+        <v>28.1661162742437</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.74763666811074</v>
+        <v>28.16611631004588</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.25315768929603</v>
+        <v>28.16611631902015</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>41.30450227056737</v>
+        <v>28.16611632509036</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.4815356053638</v>
+        <v>28.16611633843046</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>45.28185839676819</v>
+        <v>28.16611634267471</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.8670339517682</v>
+        <v>28.16611629869209</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>44.74360956914239</v>
+        <v>28.16611633267051</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>50.65088362191209</v>
+        <v>28.16611634187966</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.525432506384</v>
+        <v>28.16611631677585</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>20.96011394709462</v>
+        <v>28.16611635349567</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.6707573536362</v>
+        <v>28.16611636415079</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-5.269286614706303</v>
+        <v>28.16611631315672</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9.19770856223834</v>
+        <v>28.16611635219592</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>15.55787714273148</v>
+        <v>28.16611636399412</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-2.349524839360857</v>
+        <v>28.16611632565459</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.46868471200034</v>
+        <v>28.1661163659276</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.47183796375598</v>
+        <v>28.16611637667709</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.1374057425145</v>
+        <v>28.1661163802772</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.88581005896098</v>
+        <v>28.16611639681024</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>42.12325511866965</v>
+        <v>28.16611640210517</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.05000045402203</v>
+        <v>28.16611634882542</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.57365673912361</v>
+        <v>28.1661163891613</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.4088809110081</v>
+        <v>28.16611639937562</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.12718082803253</v>
+        <v>28.16611635593126</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.45400315971455</v>
+        <v>28.16611639262491</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>41.73859285584861</v>
+        <v>28.16611640405686</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2.711433429419357</v>
+        <v>28.16611635172561</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>23.09046537184403</v>
+        <v>28.16611639090891</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.62360331458904</v>
+        <v>28.16611640322569</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>6.545347080900751</v>
+        <v>28.16611636610735</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>43.14898332889024</v>
+        <v>28.16611640636691</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>53.37851756636128</v>
+        <v>28.16611641787321</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>53.57835863295725</v>
+        <v>28.1661164186132</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>62.34155397649874</v>
+        <v>28.16611643495343</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>65.06904372544329</v>
+        <v>28.16611643947987</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.16502874913712</v>
+        <v>28.16611638630813</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>51.29964751178647</v>
+        <v>28.16611642590578</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>57.50169711264327</v>
+        <v>28.16611643667521</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.12830240233326</v>
+        <v>28.16611627238233</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.26972293158983</v>
+        <v>28.16611630312181</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>41.62609799917169</v>
+        <v>28.16611631143583</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>10.18026709154022</v>
+        <v>28.16611627030876</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.07846624566366</v>
+        <v>28.16611630393841</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.93329075473527</v>
+        <v>28.16611631277372</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.74884654398695</v>
+        <v>28.16611627762243</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>57.91645799513322</v>
+        <v>28.16611631163361</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>61.1392486805948</v>
+        <v>28.1661163198331</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>52.16698405019888</v>
+        <v>28.16611632511758</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>56.76526801186227</v>
+        <v>28.16611633761837</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>59.11370507322724</v>
+        <v>28.16611634139418</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.47780768484053</v>
+        <v>28.16611629954292</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>50.09603556950994</v>
+        <v>28.16611633216403</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>56.30725126347405</v>
+        <v>28.16611634067644</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.99617115310798</v>
+        <v>28.16611631592102</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.1961409670193</v>
+        <v>28.16611635078679</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.63005153319133</v>
+        <v>28.16611636062834</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>1.382305154253439</v>
+        <v>28.16611631236047</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.14789855752362</v>
+        <v>28.16611634954172</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.96192222790184</v>
+        <v>28.16611636049928</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>4.634941385475042</v>
+        <v>28.16611632420087</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.2219300734142</v>
+        <v>28.16611636240814</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>50.75234933317695</v>
+        <v>28.16611637234013</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.00566043956465</v>
+        <v>28.16611637557429</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.23322951267651</v>
+        <v>28.16611639090595</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>57.55108309533906</v>
+        <v>28.16611639566039</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>4.068540133852308</v>
+        <v>28.16611634530749</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>43.9007624668052</v>
+        <v>28.16611638372165</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>50.51674682266928</v>
+        <v>28.16611639340569</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>12.45771087977505</v>
+        <v>28.16611635340378</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.74752522777638</v>
+        <v>28.16611638836326</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.90926094636056</v>
+        <v>28.16611639887452</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-0.3207912891360323</v>
+        <v>28.16611634941294</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.16438694128353</v>
+        <v>28.16611638682988</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>37.21321357001115</v>
+        <v>28.16611639823562</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>2.971479062429895</v>
+        <v>28.16611636308767</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.50945427588302</v>
+        <v>28.16611640138754</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>61.50129067716902</v>
+        <v>28.16611641197465</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>57.02950582270924</v>
+        <v>28.16611641254177</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>65.48962587863208</v>
+        <v>28.1661164277292</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>75.04941224363887</v>
+        <v>28.16611643181562</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>6.539400859807781</v>
+        <v>28.16611638139337</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.31872019738196</v>
+        <v>28.16611641929141</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>62.03352378584575</v>
+        <v>28.16611642942067</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>15.0714952500656</v>
+        <v>28.16611627640749</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.95248369458364</v>
+        <v>28.16611630979472</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.10240400407676</v>
+        <v>28.16611631908255</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>6.922521701854812</v>
+        <v>28.16611627527927</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.71500465233824</v>
+        <v>28.16611631181268</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.65164077001275</v>
+        <v>28.16611632162245</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.20917042927988</v>
+        <v>28.16611628357644</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>58.56744797247899</v>
+        <v>28.16611632057515</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>61.77215988325029</v>
+        <v>28.16611632973115</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>50.28105698042098</v>
+        <v>28.16611633497789</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>53.5108750431125</v>
+        <v>28.16611634857544</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>56.08067577950545</v>
+        <v>28.16611635292372</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.12295331047337</v>
+        <v>28.16611630737312</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.92335766993075</v>
+        <v>28.16611634240056</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>57.61376682930937</v>
+        <v>28.16611635185499</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>13.24450143043202</v>
+        <v>28.16611632616181</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.03706445329341</v>
+        <v>28.1661163640941</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>39.40392298558287</v>
+        <v>28.16611637489471</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-0.09595694406466038</v>
+        <v>28.16611632334742</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.78419119702813</v>
+        <v>28.16611636374897</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.78212023301194</v>
+        <v>28.16611637573096</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2.351584695118616</v>
+        <v>28.16611633644983</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.70448597073249</v>
+        <v>28.16611637804432</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>56.32909503563084</v>
+        <v>28.16611638893706</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.37731507242017</v>
+        <v>28.16611639181201</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>60.54698187788691</v>
+        <v>28.16611640867566</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>63.36123861202908</v>
+        <v>28.16611641406793</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11.83102248431745</v>
+        <v>28.16611635897901</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>49.51544206590425</v>
+        <v>28.16611640056838</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>58.35988195301042</v>
+        <v>28.16611641096859</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.33341739400123</v>
+        <v>28.16611636455639</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.1113837297728</v>
+        <v>28.16611640243454</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.38371878967004</v>
+        <v>28.16611641405177</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1.786355257110243</v>
+        <v>28.16611636112629</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.97527050678045</v>
+        <v>28.16611640163529</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.27541427386056</v>
+        <v>28.16611641417833</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3.61003446098881</v>
+        <v>28.16611637604549</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>53.77917722974789</v>
+        <v>28.16611641758923</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>65.12089421493343</v>
+        <v>28.16611642928317</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>61.50713915649075</v>
+        <v>28.16611642925422</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>73.76950012744929</v>
+        <v>28.16611644595654</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>78.38445387420181</v>
+        <v>28.16611645057537</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>14.26998193691836</v>
+        <v>28.16611639562769</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>60.20537299257526</v>
+        <v>28.16611643646687</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>68.54156085634105</v>
+        <v>28.16611644747863</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.33218346806654</v>
+        <v>28.16611627515555</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.47186848008587</v>
+        <v>28.16611630671392</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.68403038151502</v>
+        <v>28.16611631567518</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.11203831196078</v>
+        <v>28.16611627405194</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>44.5999357525872</v>
+        <v>28.16611630852849</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>46.81452269230181</v>
+        <v>28.16611631799959</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>18.52256640594517</v>
+        <v>28.16611628153693</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>55.79254484326724</v>
+        <v>28.16611631652941</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>57.18147890158851</v>
+        <v>28.1661163253718</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>46.13724159252675</v>
+        <v>28.16611633085761</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>49.33330080299321</v>
+        <v>28.16611634385114</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>53.35510692537198</v>
+        <v>28.16611634806792</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.26400932590098</v>
+        <v>28.16611630495569</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>44.97345249615336</v>
+        <v>28.16611633803593</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>55.00489471681131</v>
+        <v>28.16611634715512</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.40002670265402</v>
+        <v>28.16611632401023</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.15830703372146</v>
+        <v>28.16611635988643</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>42.13347817117656</v>
+        <v>28.16611637035067</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.07793440019059</v>
+        <v>28.16611632144419</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>41.89879339437027</v>
+        <v>28.1661163595863</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>50.69190617846547</v>
+        <v>28.16611637116851</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>13.12916665602938</v>
+        <v>28.16611633343988</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>47.16743329396381</v>
+        <v>28.16611637280336</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>59.35582461490166</v>
+        <v>28.16611638335526</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>47.66698993976395</v>
+        <v>28.16611638635453</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>61.19685252047876</v>
+        <v>28.16611640250764</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>65.48733613826619</v>
+        <v>28.16611640775068</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>19.93829351451442</v>
+        <v>28.16611635541704</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.23187756458941</v>
+        <v>28.1661163947845</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>58.09368203242559</v>
+        <v>28.16611640480278</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>24.11937916252759</v>
+        <v>28.16611636112075</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.8596480727281</v>
+        <v>28.1661163969651</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.16755402581295</v>
+        <v>28.16611640817761</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>23.33067633185028</v>
+        <v>28.16611635793601</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>46.86273273916573</v>
+        <v>28.16611639619221</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>53.7227374527103</v>
+        <v>28.1661164082847</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>15.44059921672208</v>
+        <v>28.16611637171827</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>57.20831770415404</v>
+        <v>28.16611641105743</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>67.71688649008077</v>
+        <v>28.1661164223439</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>64.35819977268517</v>
+        <v>28.16611642258992</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>76.37339458454868</v>
+        <v>28.16611643857539</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>81.77441722344822</v>
+        <v>28.16611644304992</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.22864956809439</v>
+        <v>28.16611639085905</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>60.73766794580392</v>
+        <v>28.16611642952327</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>70.70629263270018</v>
+        <v>28.16611644010215</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>12.18138063962332</v>
+        <v>28.16611627138305</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.52448410167263</v>
+        <v>28.16611630423262</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>34.64570005971031</v>
+        <v>28.16611631305003</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>0.7485966974152731</v>
+        <v>28.16611626963</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.47195962638641</v>
+        <v>28.16611630554236</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.96675062707738</v>
+        <v>28.16611631488632</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>6.520728029205662</v>
+        <v>28.16611627759086</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>48.29005288143185</v>
+        <v>28.16611631391638</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>51.16191002105723</v>
+        <v>28.16611632262971</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>52.25668523166721</v>
+        <v>28.16611632806478</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.67558660752913</v>
+        <v>28.16611634134362</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>55.41379847789662</v>
+        <v>28.16611634541148</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>10.96590562835152</v>
+        <v>28.16611630065446</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>44.10608030275272</v>
+        <v>28.16611633543449</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>52.27255934625155</v>
+        <v>28.16611634445672</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>11.07357293085589</v>
+        <v>28.16611631842465</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.45107669412451</v>
+        <v>28.16611635567958</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.72266995634381</v>
+        <v>28.16611636604202</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-4.987334211464763</v>
+        <v>28.16611631518384</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.13646039970408</v>
+        <v>28.16611635489545</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.1570382064211</v>
+        <v>28.16611636641485</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-1.979320676508806</v>
+        <v>28.16611632792266</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>37.01140491575837</v>
+        <v>28.16611636872954</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>46.28553581107728</v>
+        <v>28.16611637920239</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>41.29485170470717</v>
+        <v>28.16611638246368</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>53.65248188601083</v>
+        <v>28.16611639879912</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>56.81386138735532</v>
+        <v>28.16611640392074</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1.509540689547675</v>
+        <v>28.16611635004455</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>41.87642158101363</v>
+        <v>28.16611639104907</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.43636086038866</v>
+        <v>28.16611640121447</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>13.10631352885181</v>
+        <v>28.16611635688921</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.54307234680225</v>
+        <v>28.16611639415099</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.11378225995162</v>
+        <v>28.16611640530291</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-2.473883174834398</v>
+        <v>28.16611635308781</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.4180343303141</v>
+        <v>28.16611639295383</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.60950309976701</v>
+        <v>28.16611640502214</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>0.1555934810353605</v>
+        <v>28.16611636766809</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>47.15580919698631</v>
+        <v>28.166116408474</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>59.57119148206054</v>
+        <v>28.16611641972199</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>59.23283776547356</v>
+        <v>28.16611642014282</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>68.69276124827958</v>
+        <v>28.16611643634536</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>75.22291183158585</v>
+        <v>28.16611644073994</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>5.092568876820735</v>
+        <v>28.16611638686888</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>53.60850297546364</v>
+        <v>28.16611642721362</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>61.88150975547174</v>
+        <v>28.16611643792477</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>6.214922938782829</v>
+        <v>28.16611626810261</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>10.83624510035787</v>
+        <v>28.16611629787553</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>15.15998209117071</v>
+        <v>28.16611630616344</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-5.322763421607277</v>
+        <v>28.16611626620359</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>11.89173410597751</v>
+        <v>28.16611629867741</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>12.4091362965469</v>
+        <v>28.1661163074764</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>1.278691863707923</v>
+        <v>28.16611627306722</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.39836463482219</v>
+        <v>28.16611630603724</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.19525998691575</v>
+        <v>28.16611631423331</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.16341622346685</v>
+        <v>28.16611632033358</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.49856652931794</v>
+        <v>28.16611633262335</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.72205077109024</v>
+        <v>28.1661163364796</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>5.80621933740774</v>
+        <v>28.16611629588345</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>17.37666298212921</v>
+        <v>28.16611632729991</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.31942265759034</v>
+        <v>28.16611633575291</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.19433047444423</v>
+        <v>28.16611631491017</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.05087000336007</v>
+        <v>28.16611634894778</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.9617109650006</v>
+        <v>28.16611635869547</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-0.8950680907073476</v>
+        <v>28.16611631160574</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>14.16329256864657</v>
+        <v>28.16611634778015</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.96401694640842</v>
+        <v>28.16611635860931</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>1.633049360428302</v>
+        <v>28.16611632296432</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.57075445620324</v>
+        <v>28.16611636026004</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.67328627719107</v>
+        <v>28.16611637011374</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.14358567699595</v>
+        <v>28.16611637376684</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>43.31360830133107</v>
+        <v>28.16611638905235</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>45.63314326763179</v>
+        <v>28.16611639386221</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>4.652949264324445</v>
+        <v>28.16611634449267</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>33.32500401898996</v>
+        <v>28.16611638197618</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>40.61415326407513</v>
+        <v>28.16611639137273</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>15.01490287372533</v>
+        <v>28.1661163512698</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.9017413670515</v>
+        <v>28.16611638532197</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.59565427513014</v>
+        <v>28.16611639578846</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>0.8985604929001312</v>
+        <v>28.16611634748817</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>23.02209416301256</v>
+        <v>28.16611638383542</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.73966000077577</v>
+        <v>28.16611639515093</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>4.058600088556046</v>
+        <v>28.16611636055836</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.12088860255103</v>
+        <v>28.16611639787434</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.59827339713517</v>
+        <v>28.16611640842598</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>50.76945559797259</v>
+        <v>28.16611640937509</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>58.95660545295607</v>
+        <v>28.16611642447878</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>59.88246284143118</v>
+        <v>28.16611642860186</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>9.509474757992901</v>
+        <v>28.16611637931014</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>48.53762998065083</v>
+        <v>28.16611641612467</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.09654449056636</v>
+        <v>28.16611642602688</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>7.408309699088466</v>
+        <v>28.1661162733233</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>14.78358768348492</v>
+        <v>28.16611630468371</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>20.85270648787408</v>
+        <v>28.16611631363028</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-3.046651499109149</v>
+        <v>28.16611627211505</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>20.32747804943901</v>
+        <v>28.16611630635543</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.74710639446772</v>
+        <v>28.16611631582658</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2.292277164875802</v>
+        <v>28.16611627951713</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.51969494570843</v>
+        <v>28.16611631428498</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.71574586016825</v>
+        <v>28.1661163231156</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.98944603600586</v>
+        <v>28.16611632882892</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>31.47294360079297</v>
+        <v>28.16611634177834</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>37.04580548774859</v>
+        <v>28.16611634599149</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.98142230164104</v>
+        <v>28.16611630310172</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.96898312905977</v>
+        <v>28.16611633603925</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.2344862918143</v>
+        <v>28.1661163451152</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>6.620170846636199</v>
+        <v>28.16611632180163</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>17.06152244608308</v>
+        <v>28.16611635747395</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.45094741417428</v>
+        <v>28.16611636794285</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>0.006636858114095645</v>
+        <v>28.16611631910403</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>16.15561987920189</v>
+        <v>28.16611635701421</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.17744801037124</v>
+        <v>28.16611636861134</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-3.391073080587205</v>
+        <v>28.16611633101199</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.06744602856304</v>
+        <v>28.16611637014634</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.84136637492216</v>
+        <v>28.16611638070225</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.72381718803073</v>
+        <v>28.16611638387538</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.62272921476371</v>
+        <v>28.16611639997959</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>49.55681751092503</v>
+        <v>28.16611640522854</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>1.163060592193069</v>
+        <v>28.16611635314326</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.19980712611948</v>
+        <v>28.16611639234376</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>40.32654700152805</v>
+        <v>28.16611640233922</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.04136786322382</v>
+        <v>28.16611635892647</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.57597814199058</v>
+        <v>28.16611639457004</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.41724020200659</v>
+        <v>28.16611640577969</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>0.272332237633286</v>
+        <v>28.16611635561923</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>20.33004362599454</v>
+        <v>28.16611639364839</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.46671818878452</v>
+        <v>28.16611640574835</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-1.926437494858959</v>
+        <v>28.16611636931087</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>35.40780133728996</v>
+        <v>28.16611640842508</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>48.36104035486711</v>
+        <v>28.16611641970603</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>46.16857535078459</v>
+        <v>28.16611642013875</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>56.96212082846574</v>
+        <v>28.16611643606743</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>64.12633395359481</v>
+        <v>28.16611644054244</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>7.210239988771281</v>
+        <v>28.16611638860845</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>39.71359178074944</v>
+        <v>28.1661164271019</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>52.19150614382116</v>
+        <v>28.16611643764712</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.55847276274169</v>
+        <v>28.16611628221093</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.06564946598129</v>
+        <v>28.16611631284728</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>39.88876287667944</v>
+        <v>28.16611632131117</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>9.082378803165854</v>
+        <v>28.16611628121495</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>40.27322134131389</v>
+        <v>28.16611631484739</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>45.38874844461854</v>
+        <v>28.1661163237921</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.51681732314617</v>
+        <v>28.16611628884236</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>62.21463624687076</v>
+        <v>28.16611632282552</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.7946377895091</v>
+        <v>28.16611633117241</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>52.47821527942654</v>
+        <v>28.16611633621007</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>55.70769834917128</v>
+        <v>28.16611634869258</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>60.48452543876671</v>
+        <v>28.16611635258654</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>32.52113428489041</v>
+        <v>28.16611631085229</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>47.6981706037778</v>
+        <v>28.16611634295706</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>66.00717113800371</v>
+        <v>28.16611635173058</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>19.6413476066952</v>
+        <v>28.16611632724717</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.73732937049904</v>
+        <v>28.1661163620449</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>42.59881305439856</v>
+        <v>28.16611637192782</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>5.336372342460358</v>
+        <v>28.16611632460835</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.89209103811662</v>
+        <v>28.16611636181513</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.85584078613236</v>
+        <v>28.16611637275469</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>6.935032431474362</v>
+        <v>28.16611633673307</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>44.48865017534234</v>
+        <v>28.16611637494445</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>55.03198135749031</v>
+        <v>28.16611638490605</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>44.08880697228896</v>
+        <v>28.16611638784059</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.00962109432714</v>
+        <v>28.16611640325428</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>59.46826642036462</v>
+        <v>28.16611640809735</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>17.899791002548</v>
+        <v>28.16611635770077</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>45.23724831347832</v>
+        <v>28.1661163958525</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>57.93126229211906</v>
+        <v>28.16611640554223</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>17.17860519533055</v>
+        <v>28.16611636335039</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.00065069696747</v>
+        <v>28.16611639814187</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>43.74621421707504</v>
+        <v>28.16611640874233</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>4.293213626291415</v>
+        <v>28.16611636007928</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.22424114078328</v>
+        <v>28.16611639741662</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.679945994676</v>
+        <v>28.16611640883049</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>5.327078370031808</v>
+        <v>28.16611637395344</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>54.06614878987835</v>
+        <v>28.16611641215302</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>63.24513868709963</v>
+        <v>28.1661164228175</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>61.33706116594411</v>
+        <v>28.16611642306166</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>70.42846733480363</v>
+        <v>28.1661164383148</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>76.86695114379378</v>
+        <v>28.16611644247386</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>22.87857703976911</v>
+        <v>28.16611639218565</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>58.53835328585036</v>
+        <v>28.16611642965454</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>71.68523896140809</v>
+        <v>28.16611643984897</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>11.52030017573219</v>
+        <v>28.16611627299964</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.39056495744196</v>
+        <v>28.16611630565675</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>33.09794881392769</v>
+        <v>28.16611631440271</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-0.2265648128535283</v>
+        <v>28.16611627149317</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>27.33812031386746</v>
+        <v>28.16611630719614</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.01660336639307</v>
+        <v>28.16611631647844</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>6.150624144971754</v>
+        <v>28.16611627941457</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>46.51153295713027</v>
+        <v>28.16611631553237</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>50.60642557841119</v>
+        <v>28.16611632417405</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>50.47118476563334</v>
+        <v>28.16611632960768</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>55.9509404050967</v>
+        <v>28.1661163428029</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>53.27161883095519</v>
+        <v>28.16611634685845</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>9.165786925551453</v>
+        <v>28.16611630234097</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>40.87521111030368</v>
+        <v>28.16611633689014</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>47.81126307216982</v>
+        <v>28.1661163458717</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>12.94435472446448</v>
+        <v>28.16611632002767</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.50850389529811</v>
+        <v>28.16611635708082</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>37.66171073728554</v>
+        <v>28.1661163673493</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-2.57149884284237</v>
+        <v>28.16611631697832</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>21.46652475759498</v>
+        <v>28.16611635646151</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>27.99242795911843</v>
+        <v>28.16611636789606</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>0.5757661175850615</v>
+        <v>28.16611632965855</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>38.8619796110309</v>
+        <v>28.16611637024355</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>49.57195841648696</v>
+        <v>28.16611638062143</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>43.2554992854954</v>
+        <v>28.16611638386117</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>57.47226311431097</v>
+        <v>28.16611640011028</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>58.71848437296777</v>
+        <v>28.16611640521159</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>3.073599304909756</v>
+        <v>28.16611635160636</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>42.83676034635514</v>
+        <v>28.16611639238907</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>49.11658567145501</v>
+        <v>28.1661164024578</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>13.46759441900999</v>
+        <v>28.16611635790827</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.9334965420955</v>
+        <v>28.16611639494946</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>41.69430092735618</v>
+        <v>28.16611640601272</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-2.061144069456834</v>
+        <v>28.16611635429708</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.78713889529631</v>
+        <v>28.16611639391952</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.77083790690486</v>
+        <v>28.16611640590438</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>0.553769969042964</v>
+        <v>28.16611636877131</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>46.71535601445227</v>
+        <v>28.1661164093366</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>59.70685243548003</v>
+        <v>28.16611642049276</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>58.30135136464229</v>
+        <v>28.16611642091743</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>69.9818211049939</v>
+        <v>28.16611643703456</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>74.44968118561867</v>
+        <v>28.16611644140994</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>5.106146330184089</v>
+        <v>28.16611638783227</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>52.71438803740465</v>
+        <v>28.16611642793277</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>60.59391266710312</v>
+        <v>28.16611643856218</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.152</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.886</v>
+        <v>16.477</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.036</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.883</v>
+        <v>16.584</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.031</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.331</v>
+        <v>8.449</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.1661162682066</v>
+        <v>4.574611248853866</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.16611630046037</v>
+        <v>8.04295800390849</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.1661163096068</v>
+        <v>14.67432617444486</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.16611626655917</v>
+        <v>-5.485428558444418</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.16611630175241</v>
+        <v>8.268507440801377</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.16611631145345</v>
+        <v>12.74754515701537</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.16611627422147</v>
+        <v>-1.63912509744144</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.16611630996159</v>
+        <v>21.31132555147793</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.16611631899555</v>
+        <v>25.09172353168911</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.1661163251074</v>
+        <v>15.62318512724549</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.16611633843978</v>
+        <v>20.19599004292221</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.16611634275287</v>
+        <v>23.82971419662178</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.16611629863553</v>
+        <v>3.704557765348135</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.166116332544</v>
+        <v>9.502826038408005</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.16611634182032</v>
+        <v>18.83815444404487</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.16611631851409</v>
+        <v>12.15801956008579</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.16611635528528</v>
+        <v>22.78679262249461</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.1661163659976</v>
+        <v>31.23016022817345</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.16611631530551</v>
+        <v>-2.252043794776739</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.16611635437163</v>
+        <v>11.12206593583263</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.16611636626514</v>
+        <v>19.62841120483066</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.16611632773274</v>
+        <v>-0.6580236405429076</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.16611636804936</v>
+        <v>26.22215284577607</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.16611637886207</v>
+        <v>37.68540539942772</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.16611638234918</v>
+        <v>26.60589488747764</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.16611639892618</v>
+        <v>38.72145773120101</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.16611640428284</v>
+        <v>46.88769508145123</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.16611635068391</v>
+        <v>2.743127875694665</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.16611639108971</v>
+        <v>26.32044770446794</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.16611640134678</v>
+        <v>35.73028882109243</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.16611635699089</v>
+        <v>14.12209639498841</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.1661163937233</v>
+        <v>26.1141731104227</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.16611640521578</v>
+        <v>35.41875567759237</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.1661163531882</v>
+        <v>-1.677530435018117</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.16611639238083</v>
+        <v>16.24617295149231</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.16611640480251</v>
+        <v>24.15034314941108</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.16611636743496</v>
+        <v>1.818259509251604</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.16611640772103</v>
+        <v>34.36300894076237</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.16611641929507</v>
+        <v>47.17773364774013</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.16611641993576</v>
+        <v>41.0102151990221</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.1661164363278</v>
+        <v>52.64585512958706</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.16611644090536</v>
+        <v>61.86433898797333</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.16611638746586</v>
+        <v>9.050498772512238</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.16611642711705</v>
+        <v>37.05132501399584</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.16611643793797</v>
+        <v>48.53136910069399</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.16611627505953</v>
+        <v>7.052303120958095</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.16611630763445</v>
+        <v>27.41030179514555</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.1661163163467</v>
+        <v>34.78574416908558</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.16611627329774</v>
+        <v>1.780467675103239</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.16611630900146</v>
+        <v>30.35113249431637</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.16611631822836</v>
+        <v>35.74066888978226</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.16611628126289</v>
+        <v>8.163968067313579</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.1661163173074</v>
+        <v>51.39672691361628</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.16611632588576</v>
+        <v>55.31168956362509</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.16611633074422</v>
+        <v>41.49564570469696</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.16611634383634</v>
+        <v>48.70035031204074</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.16611634780219</v>
+        <v>53.05758760446669</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.16611630354306</v>
+        <v>9.547927838201339</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.16611633798373</v>
+        <v>34.74216729373522</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.16611634690199</v>
+        <v>44.96011103855233</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.1661163210657</v>
+        <v>6.8110457203443</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.16611635800686</v>
+        <v>28.17009734763122</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.16611636824316</v>
+        <v>35.48171270979097</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.16611631769266</v>
+        <v>-2.764281759464414</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.16611635715239</v>
+        <v>20.5844643373788</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.16611636854431</v>
+        <v>28.98400543659301</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.16611633041991</v>
+        <v>0.06126007725738702</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.1661163708971</v>
+        <v>41.05851136415143</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.16611638121901</v>
+        <v>50.40709322304861</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.1661163840436</v>
+        <v>39.1340126216141</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.16611640011978</v>
+        <v>51.61610154239238</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.1661164050764</v>
+        <v>58.16366971961779</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.16611635190429</v>
+        <v>3.422783178250658</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.16611639250015</v>
+        <v>38.94315395489546</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.16611640256304</v>
+        <v>47.39928928324076</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.16611635957092</v>
+        <v>7.710059864661741</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.16611639656205</v>
+        <v>31.56580106498365</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.16611640752633</v>
+        <v>41.10705752483535</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.16611635572254</v>
+        <v>-4.082128034897991</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.16611639538333</v>
+        <v>24.60142135994498</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.16611640725808</v>
+        <v>33.23122061703015</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.16611637033589</v>
+        <v>0.5930010572847415</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.16611641086185</v>
+        <v>48.37320311771822</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.16611642189571</v>
+        <v>60.51275359476635</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.16611642194155</v>
+        <v>50.77922176418716</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.1661164378731</v>
+        <v>65.06044678565218</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.16611644214243</v>
+        <v>72.25347001410317</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.16611638893061</v>
+        <v>6.416822443117239</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.16611642893843</v>
+        <v>48.85143484593954</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.16611643951417</v>
+        <v>59.05083185308148</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.16611627403279</v>
+        <v>12.8880458431549</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.16611630655752</v>
+        <v>26.45180368181187</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.16611631522752</v>
+        <v>31.45244965049724</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.16611627209558</v>
+        <v>2.611471829132515</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.166116307753</v>
+        <v>25.82775475216447</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.16611631696385</v>
+        <v>29.05170844293173</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.16611628009001</v>
+        <v>9.844744196742308</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.16611631609961</v>
+        <v>46.78000631744683</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.16611632464622</v>
+        <v>48.45360363163168</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.16611632976839</v>
+        <v>37.9884055616599</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.1661163428519</v>
+        <v>45.34094056354502</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.16611634681202</v>
+        <v>47.75582714190381</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.16611630267796</v>
+        <v>14.3427565694414</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.16611633705701</v>
+        <v>29.7187043980091</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.16611634595393</v>
+        <v>38.5994145631579</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.16611632128014</v>
+        <v>17.83958316761965</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.16611635823496</v>
+        <v>34.53504437306653</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.16611636842118</v>
+        <v>39.69359771415098</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.16611631781425</v>
+        <v>2.948868058477576</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.16611635731568</v>
+        <v>23.95194871147532</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.16611636866551</v>
+        <v>30.44545356529137</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.16611633064382</v>
+        <v>7.868879813247677</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.16611637116168</v>
+        <v>45.05262963966048</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.16611638143884</v>
+        <v>52.23576502422344</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.16611638443126</v>
+        <v>43.50991569231329</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.16611640050683</v>
+        <v>55.3193663593439</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.16611640546982</v>
+        <v>59.63852852510082</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.1661163523352</v>
+        <v>14.06193878567744</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.16611639290854</v>
+        <v>42.14150857025471</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.16611640297065</v>
+        <v>49.77357276726921</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.16611635989422</v>
+        <v>15.93248207126834</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.16611639689042</v>
+        <v>35.23311570180582</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.16611640781969</v>
+        <v>42.47115080394494</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.16611635590221</v>
+        <v>-0.6839010469932667</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.16611639559393</v>
+        <v>26.08127546205332</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.16611640743227</v>
+        <v>32.20858481904672</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.1661163706298</v>
+        <v>5.982255941428306</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.16611641118584</v>
+        <v>50.13854620124831</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.16611642218802</v>
+        <v>59.81393443165727</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.16611642238466</v>
+        <v>53.27250966505527</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.16611643832106</v>
+        <v>66.17521922051097</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.16611644259152</v>
+        <v>71.73702684482625</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.16611638941915</v>
+        <v>14.55474072003711</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.16611642938261</v>
+        <v>49.53123783576488</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.16611643995262</v>
+        <v>58.73217499159948</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.16611626653643</v>
+        <v>6.229030084259524</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.16611629829872</v>
+        <v>9.044744892525557</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.16611630727877</v>
+        <v>15.76324669775875</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.16611626457751</v>
+        <v>-3.643219933487899</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.16611629924327</v>
+        <v>9.13314231912895</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.16611630875761</v>
+        <v>14.16339408715989</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.1661162719893</v>
+        <v>0.02174601379548591</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.1661163071866</v>
+        <v>21.42004089562899</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.16611631605826</v>
+        <v>25.43878089975772</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.1661163222762</v>
+        <v>16.98683408362512</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.16611633537729</v>
+        <v>20.83517720298065</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.16611633965738</v>
+        <v>26.7030518039285</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.16611629654705</v>
+        <v>14.03950959020723</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.16611632987774</v>
+        <v>18.79674431019801</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.16611633898246</v>
+        <v>27.1429126551518</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.16611631594145</v>
+        <v>12.14365069351706</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.16611635212855</v>
+        <v>21.21896214245107</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.16611636267315</v>
+        <v>29.73795612612659</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.16611631234183</v>
+        <v>-1.931397136228881</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.16611635081349</v>
+        <v>10.21276054691212</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.16611636249352</v>
+        <v>19.06910107793674</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.16611632442885</v>
+        <v>-1.530340343769524</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.1661163641068</v>
+        <v>22.743373561608</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.16611637475455</v>
+        <v>34.3796103236192</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.16611637833961</v>
+        <v>23.0622830830638</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.16611639465028</v>
+        <v>34.73984778737429</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.16611639996868</v>
+        <v>44.37592078453832</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.16611634741004</v>
+        <v>6.889943020194572</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.16611638713738</v>
+        <v>28.37512019874141</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.16611639722464</v>
+        <v>36.44779562748656</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.16611635467462</v>
+        <v>15.01547423214027</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.16611639085462</v>
+        <v>25.56015587278031</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.16611640213205</v>
+        <v>34.70472508537052</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.16611635047654</v>
+        <v>-1.555721942825375</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.16611638909858</v>
+        <v>15.21289793690201</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.16611640127358</v>
+        <v>23.22020535977144</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.16611636445248</v>
+        <v>1.642162793147367</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.1661164041406</v>
+        <v>31.79783082380475</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.16611641550761</v>
+        <v>44.63183732651985</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.16611641629811</v>
+        <v>37.04307053362835</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.16611643243769</v>
+        <v>47.67707398102134</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.16611643696917</v>
+        <v>58.76466963259459</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.16611638451047</v>
+        <v>13.01521638801023</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.16611642355247</v>
+        <v>38.7035226607706</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.16611643418675</v>
+        <v>48.83602457464058</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.16611627413114</v>
+        <v>9.71163734239442</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.16611630627059</v>
+        <v>20.4717671140499</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.16611631522406</v>
+        <v>26.23474600682451</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.1661162725032</v>
+        <v>0.8449698494841655</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.16611630764089</v>
+        <v>22.32928313035396</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.16611631711006</v>
+        <v>26.52941942957787</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.16611628031323</v>
+        <v>8.016499045408285</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.16611631593608</v>
+        <v>40.77678959616819</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.16611632477783</v>
+        <v>43.46931026820076</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.16611633011851</v>
+        <v>29.69918772521293</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.16611634325524</v>
+        <v>36.16500854361607</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.16611634748806</v>
+        <v>38.77312208233144</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.16611630368086</v>
+        <v>13.80862455298612</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.16611633725006</v>
+        <v>22.92493874857196</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.16611634636187</v>
+        <v>30.45615775210338</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.16611632478019</v>
+        <v>20.67532842863838</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.16611636134048</v>
+        <v>36.39453636737998</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.1661163718033</v>
+        <v>41.52272783628233</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.16611632164477</v>
+        <v>6.396668683168564</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.16611636057932</v>
+        <v>26.37262944109596</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.16611637218836</v>
+        <v>32.30429008564511</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.16611633419947</v>
+        <v>11.40580349598839</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.16611637430199</v>
+        <v>45.7956166205695</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.16611638486892</v>
+        <v>53.57215046085348</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.16611638777262</v>
+        <v>45.23186705518891</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.16611640411546</v>
+        <v>58.13094595238348</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.16611640937946</v>
+        <v>63.81808176114573</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.16611635623583</v>
+        <v>21.28288050019815</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.16611639622356</v>
+        <v>46.30018492553336</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.16611640627518</v>
+        <v>52.60421433033109</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.1661163621307</v>
+        <v>17.38163209962523</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.16611639865622</v>
+        <v>33.78562058357477</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.16611640989616</v>
+        <v>41.03371478578308</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.16611635836943</v>
+        <v>0.7502328096301447</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.16611639741402</v>
+        <v>24.04174401617056</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.16611640956708</v>
+        <v>30.39573616543918</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.16611637271576</v>
+        <v>6.99085659955675</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.16611641279048</v>
+        <v>46.1010642532048</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.16611642412282</v>
+        <v>56.83468330177924</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.16611642422933</v>
+        <v>51.27650994948914</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.16611644042845</v>
+        <v>63.64769707994861</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.16611644492782</v>
+        <v>70.67417840389945</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.16611639188252</v>
+        <v>18.74651943154038</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.16611643118554</v>
+        <v>48.41056193377966</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.16611644183167</v>
+        <v>57.61770052968919</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.16611628532437</v>
+        <v>5.829671776394285</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.16611631517661</v>
+        <v>23.50912626696154</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.16611632301516</v>
+        <v>28.60304423699567</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.16611628374017</v>
+        <v>1.596523635436917</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.1661163165324</v>
+        <v>28.93201260002108</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.16611632478358</v>
+        <v>32.9992387550969</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.16611629116961</v>
+        <v>8.487603093004106</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.16611632423976</v>
+        <v>49.89963430147573</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.16611633196331</v>
+        <v>51.22630198676185</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.1661163359585</v>
+        <v>31.17529932282328</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.16611634783671</v>
+        <v>39.05388275869826</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.16611635146632</v>
+        <v>41.25601102061189</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.16611631093497</v>
+        <v>4.814902531938866</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.16611634208799</v>
+        <v>21.8654007784317</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.16611635011934</v>
+        <v>27.72199040430204</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.16611633184191</v>
+        <v>17.46924363778738</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.16611636584484</v>
+        <v>41.34944090058895</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.16611637500352</v>
+        <v>44.39271128491211</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.16611632893864</v>
+        <v>2.981989257068228</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.16611636535401</v>
+        <v>31.38701335657975</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.16611637551788</v>
+        <v>36.04285665227621</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.16611634090754</v>
+        <v>9.898111297750225</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.16611637819701</v>
+        <v>55.09664876435319</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.16611638744287</v>
+        <v>59.46609685303528</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.16611638952557</v>
+        <v>48.05086786381</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.16611640420731</v>
+        <v>61.14832204713559</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.16611640872129</v>
+        <v>65.49141414668752</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.16611635982471</v>
+        <v>16.8172581197278</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.16611639695245</v>
+        <v>52.45901704962212</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.16611640592347</v>
+        <v>56.45662417472022</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.16611636565863</v>
+        <v>15.39024658277098</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.16611639961097</v>
+        <v>38.98387612485336</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.16611640947955</v>
+        <v>45.1539022139256</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.16611636221172</v>
+        <v>-1.626794133027481</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.16611639869992</v>
+        <v>28.66253530233011</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.16611640936922</v>
+        <v>34.24876937846255</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.16611637583653</v>
+        <v>6.394280592407556</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.16611641307612</v>
+        <v>54.73341886813081</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.16611642301996</v>
+        <v>63.19201236298495</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.16611642261001</v>
+        <v>54.51222431046098</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.16611643716973</v>
+        <v>68.02443604774514</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.16611644106088</v>
+        <v>72.59085912516507</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.16611639217871</v>
+        <v>14.70843476975537</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.16611642869499</v>
+        <v>54.61833395692496</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.1661164382158</v>
+        <v>61.16044442220338</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.16611627090803</v>
+        <v>1.659255925617131</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.16611630042919</v>
+        <v>3.578050726145843</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.16611630863196</v>
+        <v>8.2335134903895</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.16611626927511</v>
+        <v>-5.256134990912017</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.16611630158321</v>
+        <v>5.797976962804618</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.1661163103043</v>
+        <v>8.843776749721307</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.16611627618484</v>
+        <v>-3.506504864629964</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.16611630889681</v>
+        <v>16.81409278142541</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.16611631699945</v>
+        <v>18.50574064919749</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.16611632306916</v>
+        <v>14.57690533100239</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.16611633527547</v>
+        <v>20.15312408935366</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.16611633908312</v>
+        <v>22.06040828895049</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.16611629858411</v>
+        <v>1.873874889359154</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.16611632978879</v>
+        <v>6.989750770192817</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.1661163381426</v>
+        <v>13.66631263325175</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.16611631694622</v>
+        <v>8.915417937099068</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.16611635074814</v>
+        <v>20.80832204557859</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.16611636039191</v>
+        <v>28.63891572872316</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.16611631394771</v>
+        <v>-2.001596526992213</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.16611635000781</v>
+        <v>12.51221409056219</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.1661163607195</v>
+        <v>21.69713257919979</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.16611632542717</v>
+        <v>-0.977770785107051</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.16611636250138</v>
+        <v>27.39523456284602</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.16611637223117</v>
+        <v>37.26943960995219</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.16611637592551</v>
+        <v>26.64183813388825</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.16611639095836</v>
+        <v>38.01966593793129</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.16611639569925</v>
+        <v>43.78287864788976</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.16611634665652</v>
+        <v>2.509050585486339</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.16611638389088</v>
+        <v>27.13886799340039</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.16611639326897</v>
+        <v>35.2197086788583</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.16611635312929</v>
+        <v>9.745961038275066</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.16611638690027</v>
+        <v>23.16539907822921</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.16611639726896</v>
+        <v>31.92989085883695</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.16611634961153</v>
+        <v>-2.564124710850553</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.16611638579218</v>
+        <v>17.03632796360774</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.16611639699152</v>
+        <v>24.75076018323764</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.16611636281982</v>
+        <v>1.24856411858784</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.16611639986424</v>
+        <v>35.58861671050407</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.1661164102943</v>
+        <v>46.43022682520247</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.16611641138454</v>
+        <v>42.81554761966218</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.16611642623754</v>
+        <v>54.90531141316526</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.16611643031159</v>
+        <v>60.0113478880606</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.16611638139681</v>
+        <v>12.28762045288638</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.16611641790424</v>
+        <v>41.10476297917128</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.16611642778286</v>
+        <v>50.17229392455492</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.1661162667598</v>
+        <v>0.1788519702731755</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.16611629870022</v>
+        <v>1.574585084542559</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.16611630765204</v>
+        <v>9.045396789017357</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.16611626483806</v>
+        <v>-5.858246557590505</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.16611629975733</v>
+        <v>4.731272718432614</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.16611630921691</v>
+        <v>10.20273195372097</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.1661162722622</v>
+        <v>-5.562020331394724</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.16611630765338</v>
+        <v>15.26948311900734</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.16611631650366</v>
+        <v>19.94099320183171</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.16611632242933</v>
+        <v>8.198972423964808</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.16611633557951</v>
+        <v>12.62471262461262</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.16611633983653</v>
+        <v>18.08083187611436</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.16611629625112</v>
+        <v>-1.597992549219072</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.16611632975998</v>
+        <v>1.162342205930095</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.16611633884377</v>
+        <v>8.183732334021421</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.16611631602212</v>
+        <v>-1.337946974656408</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.1661163523634</v>
+        <v>3.169138270090709</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.16611636286797</v>
+        <v>12.33721988877711</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.16611631258387</v>
+        <v>-8.640335716290519</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.16611635128589</v>
+        <v>-1.818830761091927</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.16611636291269</v>
+        <v>7.479089902080062</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.1661163247332</v>
+        <v>-11.89891939933037</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.16611636458548</v>
+        <v>8.567325958516573</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.1661163752087</v>
+        <v>20.73152093730915</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.16611637869028</v>
+        <v>9.408092905692001</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.16611639504855</v>
+        <v>21.54086175444566</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.16611640039358</v>
+        <v>31.68657538609182</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.16611634742162</v>
+        <v>-8.436737487222803</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.16611638729873</v>
+        <v>7.469555606441986</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.16611639737096</v>
+        <v>14.46555321009352</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.16611635423207</v>
+        <v>-0.3129758954590578</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.16611639056348</v>
+        <v>5.67925258147857</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.16611640185354</v>
+        <v>18.01595515965415</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.16611635025772</v>
+        <v>-9.871594495005994</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.1661163890984</v>
+        <v>1.367433502158821</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.16611640128282</v>
+        <v>12.02655627474114</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.16611636425306</v>
+        <v>-11.24944806075099</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.16611640410473</v>
+        <v>14.88413201419875</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.16611641549992</v>
+        <v>30.91172788923591</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.16611641616475</v>
+        <v>21.38509928940479</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.16611643241497</v>
+        <v>33.39312405691905</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.16611643696698</v>
+        <v>45.50886482687382</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.1661163840449</v>
+        <v>-6.630272380347474</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.16611642326392</v>
+        <v>15.13334259352548</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.16611643394212</v>
+        <v>25.16307249621087</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.16611628994537</v>
+        <v>9.174154014982326</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.16611632116616</v>
+        <v>27.1804690471038</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.16611632952544</v>
+        <v>35.39058088021507</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.16611628932021</v>
+        <v>5.528999213157942</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.16611632367414</v>
+        <v>36.44523440746683</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.16611633247286</v>
+        <v>41.21304815924258</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.16611629742179</v>
+        <v>13.57372583347188</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.16611633202672</v>
+        <v>56.65249515376387</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.16611634024366</v>
+        <v>60.72068416138313</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.16611634435874</v>
+        <v>45.43623353873907</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.16611635685858</v>
+        <v>52.93980798692901</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.16611636066096</v>
+        <v>55.08923568937715</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.16611631819274</v>
+        <v>20.24428266231354</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.16611635098964</v>
+        <v>37.98564503772219</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.16611635955265</v>
+        <v>52.07437962549088</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.16611633383645</v>
+        <v>6.514949408053644</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.16611636927911</v>
+        <v>26.25918327072072</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.16611637895601</v>
+        <v>31.91328841320292</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.16611633160598</v>
+        <v>-5.02437255957463</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.16611636959233</v>
+        <v>19.94334609355208</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.16611638031612</v>
+        <v>25.54253779580687</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.16611634421933</v>
+        <v>-1.005010082085278</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.16611638310319</v>
+        <v>40.56400730676364</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.16611639284445</v>
+        <v>47.54598045121696</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.16611639513242</v>
+        <v>36.6943408815111</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.16611641049575</v>
+        <v>48.20738534658683</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.16611641521152</v>
+        <v>51.69298362136837</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.16611636421783</v>
+        <v>7.556757194003733</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.16611640302676</v>
+        <v>38.42183422421196</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.16611641251909</v>
+        <v>46.24471742906424</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.16611636902875</v>
+        <v>7.871296518507961</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.16611640440746</v>
+        <v>28.67330393227668</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.16611641486626</v>
+        <v>37.95446578564231</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.16611636624869</v>
+        <v>-3.638889797358576</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.16611640431043</v>
+        <v>25.36948955159915</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.1661164155765</v>
+        <v>31.914720818071</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.16611638055177</v>
+        <v>1.256158990284046</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.16611641936533</v>
+        <v>48.05976067824368</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.16611642987113</v>
+        <v>59.17964641276347</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.16611642949501</v>
+        <v>50.00536024218192</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.16611644471467</v>
+        <v>62.38154226861974</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.16611644879091</v>
+        <v>66.90784938734299</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.16611639789458</v>
+        <v>12.11727573854736</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.1661164360001</v>
+        <v>48.59395340487196</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.16611644607259</v>
+        <v>60.04652016099594</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.16611626405195</v>
+        <v>2.567807699553427</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.16611629333725</v>
+        <v>2.386826644276358</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.16611630143628</v>
+        <v>9.016064685471029</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.16611626174808</v>
+        <v>-5.499272494146705</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.16611629370721</v>
+        <v>0.1989182169575159</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.16611630232967</v>
+        <v>5.251565678784118</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.16611626821523</v>
+        <v>-3.771003677636543</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.1661163005986</v>
+        <v>12.17728455212128</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.16611630860675</v>
+        <v>16.03128774954854</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.16611631483268</v>
+        <v>7.642683431357476</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.16611632697402</v>
+        <v>12.19995475751725</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.16611633069228</v>
+        <v>16.59923607554292</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.16611629061271</v>
+        <v>-5.062396759057851</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.16611632176881</v>
+        <v>1.465806755330139</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.16611632999669</v>
+        <v>6.993183909019532</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.16611630839191</v>
+        <v>3.854093029840516</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.16611634181069</v>
+        <v>10.06616733483546</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.16611635146682</v>
+        <v>20.79247976868345</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.16611630481972</v>
+        <v>-5.1926009359705</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.1661163403855</v>
+        <v>1.939791080441903</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.16611635112016</v>
+        <v>13.59925327550774</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.16611631578609</v>
+        <v>-5.666254237350746</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.16611635238571</v>
+        <v>14.25370049898788</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.16611636214184</v>
+        <v>27.17887076666694</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.16611636600275</v>
+        <v>13.08998853689081</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.16611638096397</v>
+        <v>23.2614574035679</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.16611638566609</v>
+        <v>32.26416453890069</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.16611633716572</v>
+        <v>-6.874085212563109</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.16611637411949</v>
+        <v>12.44095683233632</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.16611638352115</v>
+        <v>21.03189779311673</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.1661163450299</v>
+        <v>7.427508487523699</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.16611637850081</v>
+        <v>15.11642624092163</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.16611638883724</v>
+        <v>26.42191510621078</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.16611634103636</v>
+        <v>-3.760115738476102</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.16611637679199</v>
+        <v>7.587561099974209</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.16611638799798</v>
+        <v>18.16002474637526</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.16611635376358</v>
+        <v>-1.153524686026206</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.16611639041512</v>
+        <v>24.50005550869116</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.16611640082831</v>
+        <v>38.07015803858964</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.16611640212134</v>
+        <v>29.34193965359647</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.16611641690876</v>
+        <v>39.80947444170712</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.16611642094147</v>
+        <v>50.11558252085108</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.16611637246098</v>
+        <v>2.972760525173843</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.16611640881168</v>
+        <v>26.41120291238627</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.16611641864991</v>
+        <v>36.37644888128662</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.16611626996337</v>
+        <v>-7.592168160859714</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.16611630087858</v>
+        <v>0.2733197306825943</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.16611630907251</v>
+        <v>3.822841123228191</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.16611626737003</v>
+        <v>-16.50294756360396</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.16611630121412</v>
+        <v>-1.370763571574901</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.16611630992585</v>
+        <v>1.166895630205079</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.16611627461165</v>
+        <v>-13.0630668669188</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.16611630882317</v>
+        <v>15.98292694880266</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.16611631691473</v>
+        <v>16.64222995409154</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.16611632208529</v>
+        <v>6.196928733581853</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.16611633450688</v>
+        <v>11.57215005733638</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.16611633829579</v>
+        <v>13.80179429609729</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.16611629644892</v>
+        <v>-11.81738556849369</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.16611632903546</v>
+        <v>-1.909920525641038</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.16611633743947</v>
+        <v>2.095299692300831</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.16611631821931</v>
+        <v>13.59396229886833</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.16611635344138</v>
+        <v>27.84638251243726</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.16611636314252</v>
+        <v>32.21821408945481</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.16611631436529</v>
+        <v>0.2616861072076269</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.16611635197969</v>
+        <v>18.08464996648153</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.16611636280128</v>
+        <v>24.18545260958199</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.16611632639792</v>
+        <v>4.233458069656759</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.16611636500313</v>
+        <v>37.48129582914699</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.16611637481151</v>
+        <v>44.06252456462437</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.16611637780316</v>
+        <v>34.88949007313138</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.16611639312984</v>
+        <v>45.89662787063732</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.16611639788041</v>
+        <v>50.02249532453411</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.16611634727095</v>
+        <v>9.146541236883031</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.16611638589625</v>
+        <v>34.66946565436307</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.16611639546484</v>
+        <v>40.07683588105515</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.16611635562518</v>
+        <v>15.45416233120038</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.16611639093383</v>
+        <v>32.24171920971163</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.16611640130636</v>
+        <v>38.67290010652015</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.16611635124707</v>
+        <v>-1.193935786340365</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.16611638908636</v>
+        <v>22.02056421486753</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.16611640034587</v>
+        <v>28.03786589755354</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.16611636514408</v>
+        <v>4.965375984792059</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.16611640383694</v>
+        <v>44.7671596483717</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.16611641430152</v>
+        <v>53.91652602793694</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.16611641462265</v>
+        <v>46.80635104447403</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.16611642983279</v>
+        <v>58.95190904525072</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.16611643391203</v>
+        <v>64.02525852234508</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.16611638317248</v>
+        <v>11.34687390263443</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.16611642129848</v>
+        <v>44.04917485504756</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.16611643132887</v>
+        <v>50.37017231181218</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.1661162626831</v>
+        <v>7.798075594542555</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.16611629303724</v>
+        <v>7.898302202057613</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.16611630137312</v>
+        <v>13.84018040212264</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.16611626000839</v>
+        <v>-1.743219962755067</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.16611629320555</v>
+        <v>6.560401550240217</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.16611630208627</v>
+        <v>11.04821543355921</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.16611626687731</v>
+        <v>1.979489551524331</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.16611630049684</v>
+        <v>19.99489621476509</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.16611630872065</v>
+        <v>23.2934617235468</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.16611631472871</v>
+        <v>13.81106883365164</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.16611632713182</v>
+        <v>18.29536759102322</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.16611633091354</v>
+        <v>22.75322246639535</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.16611628977282</v>
+        <v>6.539282281095449</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.16611632193676</v>
+        <v>8.010148806022219</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.16611633044302</v>
+        <v>14.71521974069567</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.16611630707972</v>
+        <v>2.463749229036459</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.16611634158571</v>
+        <v>5.454920748253159</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.16611635152427</v>
+        <v>14.3629813671057</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.16611630281972</v>
+        <v>-7.302389218739219</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.1661163396298</v>
+        <v>-1.622856498354334</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.16611635066722</v>
+        <v>8.548243183593321</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.16611631425074</v>
+        <v>-7.723718248135174</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.16611635209061</v>
+        <v>10.31840021750083</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.16611636212618</v>
+        <v>21.99033711693313</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.16611636590232</v>
+        <v>7.743927689358106</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.16611638114322</v>
+        <v>15.56790488622614</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.16611638596018</v>
+        <v>23.85793163505459</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.16611633625358</v>
+        <v>-6.435270307245247</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.16611637425792</v>
+        <v>6.305531101544432</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.16611638400005</v>
+        <v>14.46174484042633</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.16611634671891</v>
+        <v>11.2308672373617</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.1661163813724</v>
+        <v>18.18023942202737</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.16611639191275</v>
+        <v>27.13316222778669</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.16611634200281</v>
+        <v>-4.877141291460397</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.16611637910922</v>
+        <v>7.931345744630619</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.16611639050737</v>
+        <v>16.276823449172</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.16611635546798</v>
+        <v>-0.5929333912671737</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.16611639347239</v>
+        <v>26.10598866161235</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.16611640408309</v>
+        <v>37.99675108414197</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.16611640522466</v>
+        <v>26.96340730172738</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.16611642029443</v>
+        <v>36.1105372932514</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.16611642440427</v>
+        <v>44.57390415703554</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.16611637458519</v>
+        <v>4.405382448829382</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.16611641210478</v>
+        <v>24.17677627343402</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.16611642222641</v>
+        <v>32.140134728783</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.1661162586401</v>
+        <v>1.562557227297479</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.16611628748366</v>
+        <v>-1.971829932944082</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.16611629536359</v>
+        <v>0.9580077092494186</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.16611625536051</v>
+        <v>-5.488276392087716</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.16611628687577</v>
+        <v>-3.268193970715327</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.1661162952746</v>
+        <v>-0.7839738096802336</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.16611626147245</v>
+        <v>-6.247916305602484</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.16611629340009</v>
+        <v>5.702512981960545</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.16611630118608</v>
+        <v>6.339533966122469</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.16611630746625</v>
+        <v>-0.5708620045952664</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.16611631923383</v>
+        <v>-0.9393356690421513</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.16611632286322</v>
+        <v>5.131115543993024</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.16611628401464</v>
+        <v>-3.131247877272152</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.16611631453873</v>
+        <v>-5.03153442179417</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.16611632258427</v>
+        <v>-2.177312733385691</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.16611630191278</v>
+        <v>-0.4092411996826968</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.16611633475907</v>
+        <v>-1.186741429459563</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.16611634416513</v>
+        <v>4.005723025420174</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.166116297182</v>
+        <v>-8.740976815041765</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.16611633219406</v>
+        <v>-7.799428383565701</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.16611634265453</v>
+        <v>-0.6787668181391844</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.16611630770089</v>
+        <v>-12.55978028931977</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.16611634370384</v>
+        <v>-0.4730355761740128</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.1661163532143</v>
+        <v>7.381812807939404</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.16611635732507</v>
+        <v>-3.357365945387254</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.16611637182834</v>
+        <v>1.113351071441688</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.16611637642283</v>
+        <v>9.220524979924512</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.16611632928975</v>
+        <v>-11.89831280701636</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.16611636543395</v>
+        <v>-4.140830724130932</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.16611637465523</v>
+        <v>0.04313874156066433</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.1661163406134</v>
+        <v>11.26198637926494</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.1661163736126</v>
+        <v>14.30930105013376</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.16611638361437</v>
+        <v>19.63561360931021</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.16611633545049</v>
+        <v>-4.394515537569017</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.16611637074946</v>
+        <v>3.422226221181877</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.16611638159167</v>
+        <v>9.156313291628951</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.16611634798739</v>
+        <v>-2.327385301311477</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.16611638416094</v>
+        <v>18.00020623793743</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.16611639425024</v>
+        <v>26.18098362985554</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.16611639582118</v>
+        <v>18.13919987390805</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.16611641018446</v>
+        <v>23.7365946682209</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.16611641411297</v>
+        <v>32.26907575776565</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.16611636677226</v>
+        <v>0.9429729496966601</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.16611640247747</v>
+        <v>15.49468918349611</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.16611641210275</v>
+        <v>19.92092343768731</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.16611626836693</v>
+        <v>18.00205483023459</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.16611630067233</v>
+        <v>23.13227857094536</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.16611630976732</v>
+        <v>30.34438727544584</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.16611626642799</v>
+        <v>3.141405509351021</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.1661163016881</v>
+        <v>18.89914452744075</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.16611631130596</v>
+        <v>22.94783889858196</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.1661162742437</v>
+        <v>11.2751446227714</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.16611631004588</v>
+        <v>36.16142375761225</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.16611631902015</v>
+        <v>40.20335997220423</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.16611632509036</v>
+        <v>31.6959889128648</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.16611633843046</v>
+        <v>37.77629766031545</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.16611634267471</v>
+        <v>40.25193904799309</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.16611629869209</v>
+        <v>23.38587322773274</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.16611633267051</v>
+        <v>30.13481507005151</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.16611634187966</v>
+        <v>37.95928586722069</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.16611631677585</v>
+        <v>10.15623021574273</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.16611635349567</v>
+        <v>17.52763204408232</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.16611636415079</v>
+        <v>24.42307587553863</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.16611631315672</v>
+        <v>-8.512684896618406</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.16611635219592</v>
+        <v>2.064842253146242</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.16611636399412</v>
+        <v>8.088090580553413</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.16611632565459</v>
+        <v>-5.750970996290366</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.1661163659276</v>
+        <v>17.70500272219533</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.16611637667709</v>
+        <v>27.14249725958211</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.1661163802772</v>
+        <v>18.25725672033758</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.16611639681024</v>
+        <v>28.44206148139872</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.16611640210517</v>
+        <v>33.76393127397273</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.16611634882542</v>
+        <v>3.021367263689388</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.1661163891613</v>
+        <v>21.4004928676584</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.16611639937562</v>
+        <v>26.93591935493227</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.16611635593126</v>
+        <v>16.46344631840911</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.16611639262491</v>
+        <v>25.90803461242321</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.16611640405686</v>
+        <v>34.47664333096638</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.16611635172561</v>
+        <v>-3.193362771331735</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.16611639090891</v>
+        <v>12.63766117776857</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.16611640322569</v>
+        <v>18.72105905504521</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.16611636610735</v>
+        <v>1.954612484095961</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.16611640636691</v>
+        <v>31.90775799539819</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.16611641787321</v>
+        <v>43.47813048525913</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.1661164186132</v>
+        <v>38.75601574470291</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.16611643495343</v>
+        <v>48.87653858743828</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.16611643947987</v>
+        <v>55.45987308177875</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.16611638630813</v>
+        <v>13.80827529490721</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.16611642590578</v>
+        <v>37.00766487313555</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.16611643667521</v>
+        <v>45.3996032941025</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.16611627238233</v>
+        <v>13.58802206519142</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.16611630312181</v>
+        <v>27.793949699549</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.16611631143583</v>
+        <v>35.16837980749895</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.16611627030876</v>
+        <v>4.673892317636852</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.16611630393841</v>
+        <v>26.37817145310268</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.16611631277372</v>
+        <v>31.97518097751237</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.16611627762243</v>
+        <v>11.35952385007912</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.16611631163361</v>
+        <v>45.64440106302252</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.1661163198331</v>
+        <v>50.28270632674887</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.16611632511758</v>
+        <v>41.91502559444366</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.16611633761837</v>
+        <v>47.43992437754524</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.16611634139418</v>
+        <v>51.28235043590017</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.16611629954292</v>
+        <v>13.89324001238177</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.16611633216403</v>
+        <v>33.98723128304269</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.16611634067644</v>
+        <v>43.53448529862823</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.16611631592102</v>
+        <v>8.499694760004159</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.16611635078679</v>
+        <v>23.8292844820769</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.16611636062834</v>
+        <v>31.70558383280865</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.16611631236047</v>
+        <v>-2.679195110566788</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.16611634954172</v>
+        <v>14.72449088621542</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.16611636049928</v>
+        <v>23.6612275146418</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.16611632420087</v>
+        <v>-0.9590656954166121</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.16611636240814</v>
+        <v>31.55634065896756</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.16611637234013</v>
+        <v>41.67215496251507</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.16611637557429</v>
+        <v>32.58528514587238</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.16611639090595</v>
+        <v>43.11449323337561</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.16611639566039</v>
+        <v>48.85367695696279</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.16611634530749</v>
+        <v>1.233250678210805</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.16611638372165</v>
+        <v>29.18457134160023</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.16611639340569</v>
+        <v>38.86777398258472</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.16611635340378</v>
+        <v>8.10898890590359</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.16611638836326</v>
+        <v>26.10514667291236</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.16611639887452</v>
+        <v>35.70360568770329</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.16611634941294</v>
+        <v>-4.789099191097552</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.16611638682988</v>
+        <v>18.05654942654254</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.16611639823562</v>
+        <v>26.99154014628983</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.16611636308767</v>
+        <v>-0.9388225284687088</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.16611640138754</v>
+        <v>38.24950928669806</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.16611641197465</v>
+        <v>50.71626798089747</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.16611641254177</v>
+        <v>43.96161076294767</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.1661164277292</v>
+        <v>55.83891945129565</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.16611643181562</v>
+        <v>63.36514051003432</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.16611638139337</v>
+        <v>4.289608304170217</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.16611641929141</v>
+        <v>39.11296013602063</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.16611642942067</v>
+        <v>49.86646028570117</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.16611627640749</v>
+        <v>8.961100826125229</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.16611630979472</v>
+        <v>21.77473590050107</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.16611631908255</v>
+        <v>29.54213743716594</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.16611627527927</v>
+        <v>2.374079024083446</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.16611631181268</v>
+        <v>26.9977101477806</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.16611632162245</v>
+        <v>31.98727839475589</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.16611628357644</v>
+        <v>8.535416581545183</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.16611632057515</v>
+        <v>44.1866639794309</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.16611632973115</v>
+        <v>48.50604981866815</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.16611633497789</v>
+        <v>34.42208853437973</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.16611634857544</v>
+        <v>39.9603012593526</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.16611635292372</v>
+        <v>43.1806015173797</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.16611630737312</v>
+        <v>13.45046946317466</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.16611634240056</v>
+        <v>27.68149395537601</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.16611635185499</v>
+        <v>39.88154235807899</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.16611632616181</v>
+        <v>9.312195042288202</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.1661163640941</v>
+        <v>25.86177661614695</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.16611637489471</v>
+        <v>32.71258643194283</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.16611632334742</v>
+        <v>-3.785819386557225</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.16611636374897</v>
+        <v>16.50471324540751</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.16611637573096</v>
+        <v>23.15707089981769</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.16611633644983</v>
+        <v>-1.238672155688644</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.16611637804432</v>
+        <v>34.44691091758811</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.16611638893706</v>
+        <v>43.88313779898715</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.16611639181201</v>
+        <v>33.2907048403066</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.16611640867566</v>
+        <v>45.53300721473065</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.16611641406793</v>
+        <v>51.95098445987014</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.16611635897901</v>
+        <v>3.743250969070285</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.16611640056838</v>
+        <v>33.19732546364064</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.16611641096859</v>
+        <v>42.10053832541179</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.16611636455639</v>
+        <v>9.740879221231054</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.16611640243454</v>
+        <v>27.42184607856547</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.16611641405177</v>
+        <v>36.40076335666195</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.16611636112629</v>
+        <v>-3.852506206935651</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.16611640163529</v>
+        <v>20.55647887781829</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.16611641417833</v>
+        <v>27.60575770808877</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.16611637604549</v>
+        <v>-0.36100311859839</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.16611641758923</v>
+        <v>40.69294374105314</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.16611642928317</v>
+        <v>52.95430819129551</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.16611642925422</v>
+        <v>45.53333307757014</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.16611644595654</v>
+        <v>57.76185962584279</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.16611645057537</v>
+        <v>65.63237305124862</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.16611639562769</v>
+        <v>6.957550299577445</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.16611643646687</v>
+        <v>41.57238115061158</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.16611644747863</v>
+        <v>53.48319833736008</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.16611627515555</v>
+        <v>18.23321347761667</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.16611630671392</v>
+        <v>24.9746191973815</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.16611631567518</v>
+        <v>32.64558671157195</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.16611627405194</v>
+        <v>16.07292803072786</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.16611630852849</v>
+        <v>35.44916833917713</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.16611631799959</v>
+        <v>40.47632747270254</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.16611628153693</v>
+        <v>17.82560251449205</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.16611631652941</v>
+        <v>45.30207480134987</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.1661163253718</v>
+        <v>49.93435654976444</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.16611633085761</v>
+        <v>36.68360107993585</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.16611634385114</v>
+        <v>41.63306312040427</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.16611634806792</v>
+        <v>44.70039262555984</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.16611630495569</v>
+        <v>24.24455755539598</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.16611633803593</v>
+        <v>29.77966682056906</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.16611634715512</v>
+        <v>41.47786004638888</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.16611632401023</v>
+        <v>18.36225729523451</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.16611635988643</v>
+        <v>28.62282756794222</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.16611637035067</v>
+        <v>36.2769449960762</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.16611632144419</v>
+        <v>14.29720216020112</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.1661163595863</v>
+        <v>29.18513957918923</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.16611637116851</v>
+        <v>36.66155878678939</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.16611633343988</v>
+        <v>8.874172886918487</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.16611637280336</v>
+        <v>36.22782784442187</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.16611638335526</v>
+        <v>46.68384104764085</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.16611638635453</v>
+        <v>35.32933616966986</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.16611640250764</v>
+        <v>46.37981905245711</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.16611640775068</v>
+        <v>52.59782121782941</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.16611635541704</v>
+        <v>14.24603645143261</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.1661163947845</v>
+        <v>33.64247519509482</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.16611640480278</v>
+        <v>43.53209504943318</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.16611636112075</v>
+        <v>17.4980263227056</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.1661163969651</v>
+        <v>29.14861260008881</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.16611640817761</v>
+        <v>38.11562509191288</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.16611635793601</v>
+        <v>13.01061533355199</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.16611639619221</v>
+        <v>32.16000271532457</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.1661164082847</v>
+        <v>39.2790387590701</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.16611637171827</v>
+        <v>9.663695200632185</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.16611641105743</v>
+        <v>42.61909174566109</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.1661164223439</v>
+        <v>55.00913268437277</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.16611642258992</v>
+        <v>48.11258337944361</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.16611643857539</v>
+        <v>58.32704019143011</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.16611644304992</v>
+        <v>65.67664303898489</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.16611639085905</v>
+        <v>16.90309858445404</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.16611642952327</v>
+        <v>41.08907185357378</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.16611644010215</v>
+        <v>54.2334710243005</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.16611627138305</v>
+        <v>7.763983034955782</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.16611630423262</v>
+        <v>23.11170737306252</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.16611631305003</v>
+        <v>29.58187056919909</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.16611626963</v>
+        <v>-0.331272385026228</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.16611630554236</v>
+        <v>23.61799134641621</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.16611631488632</v>
+        <v>26.94941545859128</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.16611627759086</v>
+        <v>6.111727729294202</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.16611631391638</v>
+        <v>43.2385445682754</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.16611632262971</v>
+        <v>46.46868348590386</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.16611632806478</v>
+        <v>37.93536829729887</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.16611634134362</v>
+        <v>43.80904129817214</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.16611634541148</v>
+        <v>45.57441054850572</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.16611630065446</v>
+        <v>6.162909114979412</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.16611633543449</v>
+        <v>27.87490400294417</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.16611634445672</v>
+        <v>36.73629288985497</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.16611631842465</v>
+        <v>6.467056554778125</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.16611635567958</v>
+        <v>22.88147261604154</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.16611636604202</v>
+        <v>28.66580829732715</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.16611631518384</v>
+        <v>-5.037492513420549</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.16611635489545</v>
+        <v>14.60441966460887</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.16611636641485</v>
+        <v>19.79740476266046</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.16611632792266</v>
+        <v>-3.529646131907377</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.16611636872954</v>
+        <v>31.16491430055195</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.16611637920239</v>
+        <v>39.08356310993834</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.16611638246368</v>
+        <v>31.69742293153077</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.16611639879912</v>
+        <v>41.58967226558607</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.16611640392074</v>
+        <v>45.71549216037878</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.16611635004455</v>
+        <v>-2.154173150114641</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.16611639104907</v>
+        <v>28.2489286747759</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.16611640121447</v>
+        <v>36.18783235625854</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.16611635688921</v>
+        <v>6.874750040110538</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.16611639415099</v>
+        <v>24.98520097943633</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.16611640530291</v>
+        <v>32.6580778533038</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.16611635308781</v>
+        <v>-5.568286582572579</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.16611639295383</v>
+        <v>18.50451889624846</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.16611640502214</v>
+        <v>23.31955152630164</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.16611636766809</v>
+        <v>-2.983477271118108</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.166116408474</v>
+        <v>37.65729053826421</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.16611641972199</v>
+        <v>47.86694164650261</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.16611642014282</v>
+        <v>44.32922997823015</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.16611643634536</v>
+        <v>55.38092989100588</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.16611644073994</v>
+        <v>60.90462106949124</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.16611638686888</v>
+        <v>0.8366870634011967</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.16611642721362</v>
+        <v>36.90820194892689</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.16611643792477</v>
+        <v>47.06874773190739</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.16611626810261</v>
+        <v>6.48807883738829</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.16611629787553</v>
+        <v>7.713839162635097</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.16611630616344</v>
+        <v>13.71094479085761</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.16611626620359</v>
+        <v>-4.041031338169898</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.16611629867741</v>
+        <v>7.403231099785238</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.1661163074764</v>
+        <v>10.4405172876895</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.16611627306722</v>
+        <v>0.5277373135555763</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.16611630603724</v>
+        <v>18.94021260340167</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.16611631423331</v>
+        <v>22.73434548130584</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.16611632033358</v>
+        <v>13.7774415631999</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.16611633262335</v>
+        <v>17.3841129569499</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.1661163364796</v>
+        <v>20.42298233685531</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.16611629588345</v>
+        <v>2.49110576901505</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.16611632729991</v>
+        <v>6.761715392461252</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.16611633575291</v>
+        <v>12.24616798804254</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.16611631491017</v>
+        <v>7.072612022485931</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.16611634894778</v>
+        <v>16.02902876061695</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.16611635869547</v>
+        <v>24.73936618638387</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.16611631160574</v>
+        <v>-4.691292828258558</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.16611634778015</v>
+        <v>7.802093315963837</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.16611635860931</v>
+        <v>15.61167626769511</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.16611632296432</v>
+        <v>-3.357898249423414</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.16611636026004</v>
+        <v>20.05707983648733</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.16611637011374</v>
+        <v>32.08409971601471</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.16611637376684</v>
+        <v>19.66480864600849</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.16611638905235</v>
+        <v>30.30436762253866</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.16611639386221</v>
+        <v>36.4434096627473</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.16611634449267</v>
+        <v>-2.791081564337841</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.16611638197618</v>
+        <v>18.97324637413931</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.16611639137273</v>
+        <v>26.86641427933135</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.1661163512698</v>
+        <v>10.85511572847369</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.16611638532197</v>
+        <v>21.41483419197439</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.16611639578846</v>
+        <v>30.75445086006656</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.16611634748817</v>
+        <v>-3.093700512006887</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.16611638383542</v>
+        <v>14.31775230193209</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.16611639515093</v>
+        <v>20.81075096226324</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.16611636055836</v>
+        <v>0.407280471615671</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.16611639787434</v>
+        <v>29.66326868245687</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.16611640842598</v>
+        <v>42.56338073558044</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.16611640937509</v>
+        <v>34.2059476915827</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.16611642447878</v>
+        <v>44.33481684200775</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.16611642860186</v>
+        <v>50.81399846143996</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.16611637931014</v>
+        <v>4.504792721122261</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.16611641612467</v>
+        <v>30.33504440960447</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.16611642602688</v>
+        <v>40.10103326488651</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.1661162733233</v>
+        <v>7.246314214653738</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.16611630468371</v>
+        <v>12.05578526751671</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.16611631363028</v>
+        <v>20.11051818729971</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.16611627211505</v>
+        <v>1.46595712862036</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.16611630635543</v>
+        <v>18.24236792888706</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.16611631582658</v>
+        <v>23.71454050753926</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.16611627951713</v>
+        <v>4.572370564451337</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.16611631428498</v>
+        <v>29.08694151035996</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.1661163231156</v>
+        <v>34.35956389346458</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.16611632882892</v>
+        <v>22.92209579392265</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.16611634177834</v>
+        <v>27.97905032981826</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.16611634599149</v>
+        <v>31.5294190788455</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.16611630310172</v>
+        <v>10.67539524225588</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.16611633603925</v>
+        <v>15.64327939184049</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.1661163451152</v>
+        <v>27.45978155611547</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.16611632180163</v>
+        <v>5.684675423082979</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.16611635747395</v>
+        <v>14.58481548689816</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.16611636794285</v>
+        <v>23.89873463700069</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.16611631910403</v>
+        <v>-1.815548778294875</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.16611635701421</v>
+        <v>11.10657230809838</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.16611636861134</v>
+        <v>20.33251568450711</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.16611633101199</v>
+        <v>-5.245991762322596</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.16611637014634</v>
+        <v>19.70373553375385</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.16611638070225</v>
+        <v>32.08051380388775</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.16611638387538</v>
+        <v>20.21307464327978</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.16611639997959</v>
+        <v>31.6116525878638</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.16611640522854</v>
+        <v>38.95372580394829</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.16611635314326</v>
+        <v>-1.279565853876282</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.16611639234376</v>
+        <v>17.74703879444939</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.16611640233922</v>
+        <v>29.02776430321062</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.16611635892647</v>
+        <v>4.979444597534119</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.16611639457004</v>
+        <v>15.23060065939936</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.16611640577969</v>
+        <v>25.51280984952157</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.16611635561923</v>
+        <v>-3.351390597925917</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.16611639364839</v>
+        <v>13.87447300680148</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.16611640574835</v>
+        <v>22.39756966435147</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.16611636931087</v>
+        <v>-4.629450202082527</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.16611640842508</v>
+        <v>25.95069971540816</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.16611641970603</v>
+        <v>39.82335035199549</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.16611642013875</v>
+        <v>33.32679351222875</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.16611643606743</v>
+        <v>43.3871208420328</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.16611644054244</v>
+        <v>51.76727811831005</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.16611638860845</v>
+        <v>1.85170677415239</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.1661164271019</v>
+        <v>25.2050098327815</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.16611643764712</v>
+        <v>39.76660890488034</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.16611628221093</v>
+        <v>15.71338306857819</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.16611631284728</v>
+        <v>25.86303458393478</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.16611632131117</v>
+        <v>33.73030253523847</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.16611628121495</v>
+        <v>6.056798640042889</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.16611631484739</v>
+        <v>31.45451667428048</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.1661163237921</v>
+        <v>36.06240858342923</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.16611628884236</v>
+        <v>15.30825413414012</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.16611632282552</v>
+        <v>48.47647005708846</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.16611633117241</v>
+        <v>52.96071506953432</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.16611633621007</v>
+        <v>39.57503477893556</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.16611634869258</v>
+        <v>45.55762781250121</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.16611635258654</v>
+        <v>47.52725673781284</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.16611631085229</v>
+        <v>25.33643554595047</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.16611634295706</v>
+        <v>33.85742407614022</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.16611635173058</v>
+        <v>47.70481749308601</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.16611632724717</v>
+        <v>16.2617441363298</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.1661163620449</v>
+        <v>28.88491269533544</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.16611637192782</v>
+        <v>34.66271959399202</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.16611632460835</v>
+        <v>0.797541539547332</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.16611636181513</v>
+        <v>20.80247126366046</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.16611637275469</v>
+        <v>26.37004276406714</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.16611633673307</v>
+        <v>5.282071331838701</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.16611637494445</v>
+        <v>37.63753678421416</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.16611638490605</v>
+        <v>45.47688926769385</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.16611638784059</v>
+        <v>36.7501265709071</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.16611640325428</v>
+        <v>44.81811492831315</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.16611640809735</v>
+        <v>48.38603262469994</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.16611635770077</v>
+        <v>13.61307665719625</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.1661163958525</v>
+        <v>35.41600124929071</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.16611640554223</v>
+        <v>43.80032612686162</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.16611636335039</v>
+        <v>14.59594930065258</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.16611639814187</v>
+        <v>28.83760572074689</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.16611640874233</v>
+        <v>36.75450349685359</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.16611636007928</v>
+        <v>-1.144934165672652</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.16611639741662</v>
+        <v>23.50518604616452</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.16611640883049</v>
+        <v>29.00540054833575</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.16611637395344</v>
+        <v>5.528103766343897</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.16611641215302</v>
+        <v>43.70031760269369</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.1661164228175</v>
+        <v>54.1055891631688</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.16611642306166</v>
+        <v>48.30814172510941</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.1661164383148</v>
+        <v>57.7096499145882</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.16611644247386</v>
+        <v>62.2200275126138</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.16611639218565</v>
+        <v>15.59572014328896</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.16611642965454</v>
+        <v>43.36195419826018</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.16611643984897</v>
+        <v>54.72935235820704</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.16611627299964</v>
+        <v>6.333974351099087</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.16611630565675</v>
+        <v>21.0932470214772</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.16611631440271</v>
+        <v>27.32242391601007</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.16611627149317</v>
+        <v>-0.8693853125131312</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.16611630719614</v>
+        <v>22.94728445841717</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.16611631647844</v>
+        <v>25.36313473609793</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.16611627941457</v>
+        <v>5.04024183142975</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.16611631553237</v>
+        <v>41.42611519047284</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.16611632417405</v>
+        <v>44.7141817396262</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.16611632960768</v>
+        <v>36.47572313784316</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.1661163428029</v>
+        <v>43.33536339055605</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.16611634685845</v>
+        <v>43.69560470345843</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.16611630234097</v>
+        <v>4.867073981273698</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.16611633689014</v>
+        <v>25.26529416605014</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.1661163458717</v>
+        <v>34.79144902764556</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.16611632002767</v>
+        <v>7.488640336487464</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.16611635708082</v>
+        <v>24.17420958266133</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.1661163673493</v>
+        <v>30.16135973423013</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.16611631697832</v>
+        <v>-4.090898805249591</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.16611635646151</v>
+        <v>15.81190859339012</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.16611636789606</v>
+        <v>20.73941619271792</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.16611632965855</v>
+        <v>-2.570754947567618</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.16611637024355</v>
+        <v>32.40274711663091</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.16611638062143</v>
+        <v>40.91694404523871</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.16611638386117</v>
+        <v>33.64694488244925</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.16611640011028</v>
+        <v>43.983195490106</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.16611640521159</v>
+        <v>46.98327272662493</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.16611635160636</v>
+        <v>-1.515020120361278</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.16611639238907</v>
+        <v>28.86964501150089</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.1661164024578</v>
+        <v>37.95481639435224</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.16611635790827</v>
+        <v>7.254006402853573</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.16611639494946</v>
+        <v>25.15981540325549</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.16611640601272</v>
+        <v>33.05840218060881</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.16611635429708</v>
+        <v>-5.622365250096049</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.16611639391952</v>
+        <v>18.37722352643056</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.16611640590438</v>
+        <v>22.77274088136692</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.16611636877131</v>
+        <v>-3.354213176339687</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.1661164093366</v>
+        <v>37.02940412177672</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.16611642049276</v>
+        <v>47.69499145575038</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.16611642091743</v>
+        <v>43.87762337730831</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.16611643703456</v>
+        <v>54.95007914801033</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>28.16611644140994</v>
+        <v>59.6898932859182</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>28.16611638783227</v>
+        <v>-0.3234463482269412</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>28.16611642793277</v>
+        <v>35.12330396517669</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.16611643856218</v>
+        <v>46.66736086678455</v>
       </c>
     </row>
   </sheetData>
